--- a/data/nzd0258/nzd0258.xlsx
+++ b/data/nzd0258/nzd0258.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O329"/>
+  <dimension ref="A1:O332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14928,19 +14928,27 @@
           <t>2024-10-10 22:06:22+00:00</t>
         </is>
       </c>
-      <c r="B329" t="inlineStr"/>
+      <c r="B329" t="n">
+        <v>353.29</v>
+      </c>
       <c r="C329" t="n">
         <v>344.1030769230769</v>
       </c>
-      <c r="D329" t="inlineStr"/>
-      <c r="E329" t="inlineStr"/>
+      <c r="D329" t="n">
+        <v>330.86</v>
+      </c>
+      <c r="E329" t="n">
+        <v>335.8200000000001</v>
+      </c>
       <c r="F329" t="n">
         <v>344.87</v>
       </c>
       <c r="G329" t="n">
         <v>350.19</v>
       </c>
-      <c r="H329" t="inlineStr"/>
+      <c r="H329" t="n">
+        <v>355.3</v>
+      </c>
       <c r="I329" t="n">
         <v>357.63</v>
       </c>
@@ -14960,6 +14968,159 @@
         <v>329.91</v>
       </c>
       <c r="O329" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:06:33+00:00</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>358.5088888888889</v>
+      </c>
+      <c r="C330" t="n">
+        <v>344.4346153846154</v>
+      </c>
+      <c r="D330" t="n">
+        <v>334.76</v>
+      </c>
+      <c r="E330" t="n">
+        <v>324.42</v>
+      </c>
+      <c r="F330" t="n">
+        <v>340.7766666666667</v>
+      </c>
+      <c r="G330" t="n">
+        <v>337.2633333333333</v>
+      </c>
+      <c r="H330" t="n">
+        <v>331.2688888888889</v>
+      </c>
+      <c r="I330" t="n">
+        <v>341.0488888888889</v>
+      </c>
+      <c r="J330" t="n">
+        <v>351.3257142857143</v>
+      </c>
+      <c r="K330" t="n">
+        <v>328.42</v>
+      </c>
+      <c r="L330" t="n">
+        <v>343.7257142857143</v>
+      </c>
+      <c r="M330" t="n">
+        <v>353.6066666666667</v>
+      </c>
+      <c r="N330" t="n">
+        <v>346.72</v>
+      </c>
+      <c r="O330" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:30+00:00</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>349.2488888888889</v>
+      </c>
+      <c r="C331" t="n">
+        <v>354.2046153846153</v>
+      </c>
+      <c r="D331" t="n">
+        <v>350.23</v>
+      </c>
+      <c r="E331" t="n">
+        <v>343.24</v>
+      </c>
+      <c r="F331" t="n">
+        <v>331.0866666666667</v>
+      </c>
+      <c r="G331" t="n">
+        <v>327.2233333333333</v>
+      </c>
+      <c r="H331" t="n">
+        <v>328.1588888888889</v>
+      </c>
+      <c r="I331" t="n">
+        <v>329.6988888888889</v>
+      </c>
+      <c r="J331" t="n">
+        <v>338.7371428571429</v>
+      </c>
+      <c r="K331" t="n">
+        <v>347.93</v>
+      </c>
+      <c r="L331" t="n">
+        <v>331.7371428571429</v>
+      </c>
+      <c r="M331" t="n">
+        <v>321.1666666666667</v>
+      </c>
+      <c r="N331" t="n">
+        <v>324.24</v>
+      </c>
+      <c r="O331" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:06:37+00:00</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>359.5666666666667</v>
+      </c>
+      <c r="C332" t="n">
+        <v>346.7053846153846</v>
+      </c>
+      <c r="D332" t="n">
+        <v>344.13</v>
+      </c>
+      <c r="E332" t="n">
+        <v>334.06</v>
+      </c>
+      <c r="F332" t="n">
+        <v>349.26</v>
+      </c>
+      <c r="G332" t="n">
+        <v>348.7</v>
+      </c>
+      <c r="H332" t="n">
+        <v>349.2966666666667</v>
+      </c>
+      <c r="I332" t="n">
+        <v>350.9666666666667</v>
+      </c>
+      <c r="J332" t="n">
+        <v>358.74</v>
+      </c>
+      <c r="K332" t="n">
+        <v>354.53</v>
+      </c>
+      <c r="L332" t="n">
+        <v>360.25</v>
+      </c>
+      <c r="M332" t="n">
+        <v>349.81</v>
+      </c>
+      <c r="N332" t="n">
+        <v>356.98</v>
+      </c>
+      <c r="O332" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -14976,7 +15137,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B346"/>
+  <dimension ref="A1:B349"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18444,6 +18605,36 @@
       </c>
       <c r="B346" t="n">
         <v>-0.72</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>-0.95</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>1.47</v>
       </c>
     </row>
   </sheetData>
@@ -18612,28 +18803,28 @@
         <v>0.0507</v>
       </c>
       <c r="I2" t="n">
-        <v>0.998081144272582</v>
+        <v>1.03250240122769</v>
       </c>
       <c r="J2" t="n">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="K2" t="n">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1087380221590958</v>
+        <v>0.1187187827847467</v>
       </c>
       <c r="M2" t="n">
-        <v>16.26398257779236</v>
+        <v>16.13633555393277</v>
       </c>
       <c r="N2" t="n">
-        <v>419.311012988567</v>
+        <v>413.9721847433664</v>
       </c>
       <c r="O2" t="n">
-        <v>20.47708507059945</v>
+        <v>20.34630641525303</v>
       </c>
       <c r="P2" t="n">
-        <v>320.1518090134049</v>
+        <v>319.8204229567355</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -18689,28 +18880,28 @@
         <v>0.07240000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7335156385595774</v>
+        <v>0.7602761516607486</v>
       </c>
       <c r="J3" t="n">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="K3" t="n">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07975124574754033</v>
+        <v>0.08669898470367954</v>
       </c>
       <c r="M3" t="n">
-        <v>14.29456495047203</v>
+        <v>14.27662404324873</v>
       </c>
       <c r="N3" t="n">
-        <v>329.359262712891</v>
+        <v>327.1607868012882</v>
       </c>
       <c r="O3" t="n">
-        <v>18.14825784236302</v>
+        <v>18.08758653887489</v>
       </c>
       <c r="P3" t="n">
-        <v>318.5702487702987</v>
+        <v>318.3176613231066</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -18766,28 +18957,28 @@
         <v>0.0552</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6375687507335926</v>
+        <v>0.6548445433506916</v>
       </c>
       <c r="J4" t="n">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="K4" t="n">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03531993857179261</v>
+        <v>0.0381757495770626</v>
       </c>
       <c r="M4" t="n">
-        <v>19.35862011411382</v>
+        <v>19.17941293022655</v>
       </c>
       <c r="N4" t="n">
-        <v>589.6172055651249</v>
+        <v>581.9810760819375</v>
       </c>
       <c r="O4" t="n">
-        <v>24.28203462572947</v>
+        <v>24.12428394962092</v>
       </c>
       <c r="P4" t="n">
-        <v>318.1115744264981</v>
+        <v>317.9456279529869</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -18843,28 +19034,28 @@
         <v>0.0562</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1253397164484938</v>
+        <v>0.1214604035296382</v>
       </c>
       <c r="J5" t="n">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="K5" t="n">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002116608178926449</v>
+        <v>0.002047778943367384</v>
       </c>
       <c r="M5" t="n">
-        <v>16.19053127944771</v>
+        <v>16.00902767428366</v>
       </c>
       <c r="N5" t="n">
-        <v>394.9419434045599</v>
+        <v>389.2996787254001</v>
       </c>
       <c r="O5" t="n">
-        <v>19.87314628851103</v>
+        <v>19.73067861796446</v>
       </c>
       <c r="P5" t="n">
-        <v>332.5500554527545</v>
+        <v>332.5866386481076</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -18920,28 +19111,28 @@
         <v>0.0675</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5290982085351076</v>
+        <v>0.5226518228952161</v>
       </c>
       <c r="J6" t="n">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="K6" t="n">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04513136884397384</v>
+        <v>0.04493018865942167</v>
       </c>
       <c r="M6" t="n">
-        <v>14.07725566605057</v>
+        <v>13.99422267046796</v>
       </c>
       <c r="N6" t="n">
-        <v>318.5104088334271</v>
+        <v>315.6179954467691</v>
       </c>
       <c r="O6" t="n">
-        <v>17.84685991521834</v>
+        <v>17.76564086788791</v>
       </c>
       <c r="P6" t="n">
-        <v>330.1750990137617</v>
+        <v>330.2362501890451</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -18997,28 +19188,28 @@
         <v>0.0895</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5497476136021036</v>
+        <v>0.5313321134329714</v>
       </c>
       <c r="J7" t="n">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="K7" t="n">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="L7" t="n">
-        <v>0.06246695319972506</v>
+        <v>0.05944503594440398</v>
       </c>
       <c r="M7" t="n">
-        <v>11.9491884675307</v>
+        <v>11.90387552340887</v>
       </c>
       <c r="N7" t="n">
-        <v>238.298594300396</v>
+        <v>237.3185935892084</v>
       </c>
       <c r="O7" t="n">
-        <v>15.43692308396968</v>
+        <v>15.40514828196108</v>
       </c>
       <c r="P7" t="n">
-        <v>332.6397881034182</v>
+        <v>332.8160850775606</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -19074,28 +19265,28 @@
         <v>0.0555</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4689517584472999</v>
+        <v>0.4544655508903807</v>
       </c>
       <c r="J8" t="n">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="K8" t="n">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03144122436331476</v>
+        <v>0.03030301010619507</v>
       </c>
       <c r="M8" t="n">
-        <v>14.93776997169432</v>
+        <v>14.87907123919383</v>
       </c>
       <c r="N8" t="n">
-        <v>359.1751095752846</v>
+        <v>356.1324867056983</v>
       </c>
       <c r="O8" t="n">
-        <v>18.95191572309471</v>
+        <v>18.87147282820549</v>
       </c>
       <c r="P8" t="n">
-        <v>334.2172220819907</v>
+        <v>334.3536663292344</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -19151,28 +19342,28 @@
         <v>0.0553</v>
       </c>
       <c r="I9" t="n">
-        <v>0.59472108447434</v>
+        <v>0.5781016421660709</v>
       </c>
       <c r="J9" t="n">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="K9" t="n">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0547744109908076</v>
+        <v>0.05287818949228329</v>
       </c>
       <c r="M9" t="n">
-        <v>14.37079447257822</v>
+        <v>14.31097900131091</v>
       </c>
       <c r="N9" t="n">
-        <v>316.5133140631177</v>
+        <v>314.2706758056942</v>
       </c>
       <c r="O9" t="n">
-        <v>17.79082106208473</v>
+        <v>17.72768106114543</v>
       </c>
       <c r="P9" t="n">
-        <v>332.9282577609929</v>
+        <v>333.0883093255956</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -19228,28 +19419,28 @@
         <v>0.0451</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5797650192048266</v>
+        <v>0.5792438129639778</v>
       </c>
       <c r="J10" t="n">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="K10" t="n">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="L10" t="n">
-        <v>0.04519683743809122</v>
+        <v>0.04603557178216922</v>
       </c>
       <c r="M10" t="n">
-        <v>15.52219195198941</v>
+        <v>15.42187639424299</v>
       </c>
       <c r="N10" t="n">
-        <v>376.8011190459138</v>
+        <v>373.0831174079003</v>
       </c>
       <c r="O10" t="n">
-        <v>19.41136571820524</v>
+        <v>19.31535962408933</v>
       </c>
       <c r="P10" t="n">
-        <v>335.3315282087017</v>
+        <v>335.3365236909433</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -19305,28 +19496,28 @@
         <v>0.0448</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4929318755648935</v>
+        <v>0.4864239744666333</v>
       </c>
       <c r="J11" t="n">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="K11" t="n">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="L11" t="n">
-        <v>0.03001700472933733</v>
+        <v>0.02986732662849512</v>
       </c>
       <c r="M11" t="n">
-        <v>16.54138830082502</v>
+        <v>16.45349621533709</v>
       </c>
       <c r="N11" t="n">
-        <v>427.6231446409977</v>
+        <v>423.9648945900929</v>
       </c>
       <c r="O11" t="n">
-        <v>20.67905086412328</v>
+        <v>20.5904078296204</v>
       </c>
       <c r="P11" t="n">
-        <v>334.1268635151844</v>
+        <v>334.186500299354</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -19382,28 +19573,28 @@
         <v>0.0411</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3013125996283886</v>
+        <v>0.2912084454662844</v>
       </c>
       <c r="J12" t="n">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="K12" t="n">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01093375847926004</v>
+        <v>0.01043306193688964</v>
       </c>
       <c r="M12" t="n">
-        <v>16.89470940209217</v>
+        <v>16.82134617170327</v>
       </c>
       <c r="N12" t="n">
-        <v>430.3441212863314</v>
+        <v>426.7729704385078</v>
       </c>
       <c r="O12" t="n">
-        <v>20.74473719492082</v>
+        <v>20.65848422412709</v>
       </c>
       <c r="P12" t="n">
-        <v>341.8334025780366</v>
+        <v>341.9307486628539</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -19453,28 +19644,28 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>0.3760339838272707</v>
+        <v>0.3503069241948959</v>
       </c>
       <c r="J13" t="n">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="K13" t="n">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01586528325526226</v>
+        <v>0.01403884434480718</v>
       </c>
       <c r="M13" t="n">
-        <v>16.89101066930843</v>
+        <v>16.81488311021083</v>
       </c>
       <c r="N13" t="n">
-        <v>476.4390513076024</v>
+        <v>474.0041998049921</v>
       </c>
       <c r="O13" t="n">
-        <v>21.82748385196064</v>
+        <v>21.77163750857965</v>
       </c>
       <c r="P13" t="n">
-        <v>342.043307321895</v>
+        <v>342.2878942418803</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -19530,28 +19721,28 @@
         <v>0.0477</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9281869234129536</v>
+        <v>0.8898767793957931</v>
       </c>
       <c r="J14" t="n">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="K14" t="n">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="L14" t="n">
-        <v>0.07286188758812684</v>
+        <v>0.06857187643568241</v>
       </c>
       <c r="M14" t="n">
-        <v>18.28367171853261</v>
+        <v>18.18965731338641</v>
       </c>
       <c r="N14" t="n">
-        <v>624.6298321943084</v>
+        <v>620.4876075289866</v>
       </c>
       <c r="O14" t="n">
-        <v>24.99259554736779</v>
+        <v>24.90958866639485</v>
       </c>
       <c r="P14" t="n">
-        <v>333.1825898314023</v>
+        <v>333.5373874723894</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -19588,7 +19779,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O329"/>
+  <dimension ref="A1:O332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40322,14 +40513,26 @@
           <t>2024-10-10 22:06:22+00:00</t>
         </is>
       </c>
-      <c r="B329" t="inlineStr"/>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>-38.42610188265847,174.6413282194047</t>
+        </is>
+      </c>
       <c r="C329" t="inlineStr">
         <is>
           <t>-38.42539281932161,174.64129427629476</t>
         </is>
       </c>
-      <c r="D329" t="inlineStr"/>
-      <c r="E329" t="inlineStr"/>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>-38.424677731366685,174.64130615356694</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>-38.42398964422492,174.64111238979172</t>
+        </is>
+      </c>
       <c r="F329" t="inlineStr">
         <is>
           <t>-38.42330761836693,174.6408724231697</t>
@@ -40340,7 +40543,11 @@
           <t>-38.42262005161318,174.640674595078</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr"/>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>-38.42193210500118,174.64047915054428</t>
+        </is>
+      </c>
       <c r="I329" t="inlineStr">
         <is>
           <t>-38.421241365774954,174.64030690115757</t>
@@ -40372,6 +40579,237 @@
         </is>
       </c>
       <c r="O329" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:06:33+00:00</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>-38.42610962578468,174.64126926045978</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>-38.425393311217064,174.64129053086822</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>-38.4246835177082,174.6412620952713</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>-38.423972730389806,174.6412411743595</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>-38.423301545311084,174.64091866470758</t>
+        </is>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>-38.42260087316944,174.6408206235913</t>
+        </is>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>-38.42189545320614,174.64075040497363</t>
+        </is>
+      </c>
+      <c r="I330" t="inlineStr">
+        <is>
+          <t>-38.42121430327006,174.6404936597851</t>
+        </is>
+      </c>
+      <c r="J330" t="inlineStr">
+        <is>
+          <t>-38.42053804822262,174.64021873539627</t>
+        </is>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>-38.419806488435945,174.64031724437731</t>
+        </is>
+      </c>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>-38.41913978455588,174.63998596932697</t>
+        </is>
+      </c>
+      <c r="M330" t="inlineStr">
+        <is>
+          <t>-38.41846386532722,174.63971571129153</t>
+        </is>
+      </c>
+      <c r="N330" t="inlineStr">
+        <is>
+          <t>-38.41775947760941,174.6396340440655</t>
+        </is>
+      </c>
+      <c r="O330" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:30+00:00</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>-38.42609588694952,174.64137387272356</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>-38.42540780667255,174.64118015807625</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>-38.424706470034465,174.64108733062344</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>-38.42400065297905,174.64102856681876</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>-38.42328716871347,174.64102813059483</t>
+        </is>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>-38.42258597735841,174.64093404227577</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>-38.42189070984762,174.64078550949924</t>
+        </is>
+      </c>
+      <c r="I331" t="inlineStr">
+        <is>
+          <t>-38.42119577844104,174.64062149856358</t>
+        </is>
+      </c>
+      <c r="J331" t="inlineStr">
+        <is>
+          <t>-38.420516679539475,174.64036032677507</t>
+        </is>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>-38.419839605929084,174.64009780555324</t>
+        </is>
+      </c>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>-38.41911943454047,174.6401208095954</t>
+        </is>
+      </c>
+      <c r="M331" t="inlineStr">
+        <is>
+          <t>-38.41840880037746,174.64008057359553</t>
+        </is>
+      </c>
+      <c r="N331" t="inlineStr">
+        <is>
+          <t>-38.417721319378614,174.63988688093303</t>
+        </is>
+      </c>
+      <c r="O331" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:06:37+00:00</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>-38.42611119517777,174.64125731050802</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>-38.425396680298356,174.64126487773638</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>-38.424697419697495,174.64115624236055</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>-38.42398703297532,174.6411322723257</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>-38.42331413155086,174.64082283024067</t>
+        </is>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>-38.422617841007536,174.6406914271466</t>
+        </is>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>-38.4219229488893,174.64054691401213</t>
+        </is>
+      </c>
+      <c r="I332" t="inlineStr">
+        <is>
+          <t>-38.421230490393775,174.64038195253852</t>
+        </is>
+      </c>
+      <c r="J332" t="inlineStr">
+        <is>
+          <t>-38.42055063364785,174.64013534233857</t>
+        </is>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>-38.41985080908943,174.6400235719711</t>
+        </is>
+      </c>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>-38.419167833473374,174.63980011392897</t>
+        </is>
+      </c>
+      <c r="M332" t="inlineStr">
+        <is>
+          <t>-38.418457420771915,174.63975841355855</t>
+        </is>
+      </c>
+      <c r="N332" t="inlineStr">
+        <is>
+          <t>-38.417776893063724,174.63951864778474</t>
+        </is>
+      </c>
+      <c r="O332" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0258/nzd0258.xlsx
+++ b/data/nzd0258/nzd0258.xlsx
@@ -18648,7 +18648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W14"/>
+  <dimension ref="A1:X14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18739,35 +18739,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -18826,27 +18831,28 @@
       <c r="P2" t="n">
         <v>319.8204229567355</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.6453193831535 -38.425577647339566, 174.63499753324277 -38.426933118661275)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.6453193831535</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-38.42557764733957</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.6349975332428</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-38.42693311866127</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.6401584581981</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-38.42625538300042</v>
       </c>
     </row>
@@ -18903,27 +18909,28 @@
       <c r="P3" t="n">
         <v>318.3176613231066</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.645181617021 -38.424882218070906, 174.63485982971173 -38.42623768428227)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.645181617021</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-38.42488221807091</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.6348598297117</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-38.42623768428227</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.6400207233664</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-38.42555995117659</v>
       </c>
     </row>
@@ -18980,27 +18987,28 @@
       <c r="P4" t="n">
         <v>317.9456279529869</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.64504385088904 -38.424186782105934, 174.6347221261797 -38.425542243207154)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.645043850889</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-38.42418678210593</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.6347221261797</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-38.42554224320715</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.6398829885344</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-38.42486451265654</v>
       </c>
     </row>
@@ -19057,27 +19065,28 @@
       <c r="P5" t="n">
         <v>332.5866386481076</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (174.64490608475754 -38.423491339444624, 174.6345844226467 -38.424846795436025)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>174.6449060847575</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-38.42349133944462</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>174.6345844226467</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-38.42484679543603</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>174.6397452537021</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-38.42416906744032</v>
       </c>
     </row>
@@ -19134,27 +19143,28 @@
       <c r="P6" t="n">
         <v>330.2362501890451</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (174.64476831862652 -38.42279589008706, 174.63444671911267 -38.42415134096883)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>174.6447683186265</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-38.42279589008706</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>174.6344467191127</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-38.42415134096883</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>174.6396075188696</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-38.42347361552794</v>
       </c>
     </row>
@@ -19211,27 +19221,28 @@
       <c r="P7" t="n">
         <v>332.8160850775606</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (174.64463055249604 -38.42210043403339, 174.6343090155776 -38.42345587980539)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>174.644630552496</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-38.42210043403339</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>174.6343090155776</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-38.42345587980539</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>174.6394697840368</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-38.42277815691939</v>
       </c>
     </row>
@@ -19288,27 +19299,28 @@
       <c r="P8" t="n">
         <v>334.3536663292344</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (174.64448961733711 -38.42139014476836, 174.63417633709778 -38.42278355227415)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>174.6444896173371</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-38.42139014476836</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>174.6341763370978</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-38.42278355227415</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>174.6393329772175</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-38.42208684852125</v>
       </c>
     </row>
@@ -19365,27 +19377,28 @@
       <c r="P9" t="n">
         <v>333.0883093255956</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (174.644334974817 -38.42065760225717, 174.63404392126614 -38.42214872786326)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>174.644334974817</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-38.42065760225717</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>174.6340439212661</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-38.42214872786326</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>174.6391894480416</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-38.42140316506021</v>
       </c>
     </row>
@@ -19442,27 +19455,28 @@
       <c r="P10" t="n">
         <v>335.3365236909433</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (174.64417027746646 -38.41994162086524, 174.63389358988653 -38.42149243979435)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>174.6441702774665</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-38.41994162086524</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>174.6338935898865</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-38.42149243979435</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>174.6390319336765</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-38.4207170303298</v>
       </c>
     </row>
@@ -19519,27 +19533,28 @@
       <c r="P11" t="n">
         <v>334.186500299354</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (174.64401111775658 -38.41924894674861, 174.63373449157393 -38.42079976003831)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>174.6440111177566</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-38.41924894674861</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>174.6337344915739</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-38.42079976003831</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>174.6388728046653</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-38.42002435339346</v>
       </c>
     </row>
@@ -19596,27 +19611,28 @@
       <c r="P12" t="n">
         <v>341.9307486628539</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (174.64385195804715 -38.41855626598981, 174.63357539326043 -38.420107073640594)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>174.6438519580472</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-38.41855626598981</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>174.6335753932604</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-38.42010707364059</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>174.6387136756538</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-38.4193316698152</v>
       </c>
     </row>
@@ -19667,27 +19683,28 @@
       <c r="P13" t="n">
         <v>342.2878942418803</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (174.64369279833812 -38.41786357858898, 174.633416294946 -38.419414380601076)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>174.6436927983381</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-38.41786357858898</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>174.633416294946</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-38.41941438060108</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>174.6385545466421</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-38.41863897959503</v>
       </c>
     </row>
@@ -19744,27 +19761,28 @@
       <c r="P14" t="n">
         <v>333.5373874723894</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (174.64353363862963 -38.41717088454619, 174.63325719663052 -38.41872168091969)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>174.6435336386296</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-38.41717088454619</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>174.6332571966305</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-38.41872168091969</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>174.6383954176301</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-38.41794628273294</v>
       </c>
     </row>

--- a/data/nzd0258/nzd0258.xlsx
+++ b/data/nzd0258/nzd0258.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O332"/>
+  <dimension ref="A1:O337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15126,6 +15126,259 @@
         </is>
       </c>
     </row>
+    <row r="333">
+      <c r="A333" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:06:19+00:00</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>370.7677777777778</v>
+      </c>
+      <c r="C333" t="n">
+        <v>378.6715384615384</v>
+      </c>
+      <c r="D333" t="n">
+        <v>369.5</v>
+      </c>
+      <c r="E333" t="n">
+        <v>377.8</v>
+      </c>
+      <c r="F333" t="n">
+        <v>366.5233333333333</v>
+      </c>
+      <c r="G333" t="n">
+        <v>360.4366666666667</v>
+      </c>
+      <c r="H333" t="n">
+        <v>357.9877777777777</v>
+      </c>
+      <c r="I333" t="n">
+        <v>355.3177777777778</v>
+      </c>
+      <c r="J333" t="n">
+        <v>354.3328571428572</v>
+      </c>
+      <c r="K333" t="n">
+        <v>353.38</v>
+      </c>
+      <c r="L333" t="n">
+        <v>359.7728571428572</v>
+      </c>
+      <c r="M333" t="n">
+        <v>357.4933333333333</v>
+      </c>
+      <c r="N333" t="n">
+        <v>359.55</v>
+      </c>
+      <c r="O333" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-11 22:06:15+00:00</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>367.8</v>
+      </c>
+      <c r="C334" t="n">
+        <v>365.8161538461539</v>
+      </c>
+      <c r="D334" t="n">
+        <v>366.23</v>
+      </c>
+      <c r="E334" t="n">
+        <v>372.56</v>
+      </c>
+      <c r="F334" t="n">
+        <v>370.12</v>
+      </c>
+      <c r="G334" t="n">
+        <v>362.96</v>
+      </c>
+      <c r="H334" t="n">
+        <v>366.4</v>
+      </c>
+      <c r="I334" t="n">
+        <v>360.47</v>
+      </c>
+      <c r="J334" t="n">
+        <v>363.1842857142857</v>
+      </c>
+      <c r="K334" t="n">
+        <v>352.58</v>
+      </c>
+      <c r="L334" t="n">
+        <v>364.6142857142857</v>
+      </c>
+      <c r="M334" t="n">
+        <v>369.56</v>
+      </c>
+      <c r="N334" t="n">
+        <v>358.37</v>
+      </c>
+      <c r="O334" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>355.5888888888889</v>
+      </c>
+      <c r="C335" t="n">
+        <v>364.99</v>
+      </c>
+      <c r="D335" t="n">
+        <v>355.58</v>
+      </c>
+      <c r="E335" t="n">
+        <v>371.87</v>
+      </c>
+      <c r="F335" t="n">
+        <v>365.4966666666666</v>
+      </c>
+      <c r="G335" t="n">
+        <v>362.4433333333333</v>
+      </c>
+      <c r="H335" t="n">
+        <v>370.8488888888889</v>
+      </c>
+      <c r="I335" t="n">
+        <v>356.1188888888889</v>
+      </c>
+      <c r="J335" t="n">
+        <v>341.6842857142857</v>
+      </c>
+      <c r="K335" t="n">
+        <v>341.21</v>
+      </c>
+      <c r="L335" t="n">
+        <v>350.2742857142857</v>
+      </c>
+      <c r="M335" t="n">
+        <v>356.2566666666667</v>
+      </c>
+      <c r="N335" t="n">
+        <v>357.16</v>
+      </c>
+      <c r="O335" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>364.66</v>
+      </c>
+      <c r="C336" t="n">
+        <v>367.53</v>
+      </c>
+      <c r="D336" t="inlineStr"/>
+      <c r="E336" t="n">
+        <v>375.74</v>
+      </c>
+      <c r="F336" t="n">
+        <v>367.42</v>
+      </c>
+      <c r="G336" t="n">
+        <v>368.63</v>
+      </c>
+      <c r="H336" t="n">
+        <v>372.8</v>
+      </c>
+      <c r="I336" t="n">
+        <v>350.49</v>
+      </c>
+      <c r="J336" t="n">
+        <v>367.9585714285714</v>
+      </c>
+      <c r="K336" t="n">
+        <v>350.51</v>
+      </c>
+      <c r="L336" t="n">
+        <v>358.9785714285715</v>
+      </c>
+      <c r="M336" t="n">
+        <v>364.94</v>
+      </c>
+      <c r="N336" t="n">
+        <v>363.8</v>
+      </c>
+      <c r="O336" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:06:00+00:00</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>362.2944444444445</v>
+      </c>
+      <c r="C337" t="n">
+        <v>353.7969230769231</v>
+      </c>
+      <c r="D337" t="n">
+        <v>343.21</v>
+      </c>
+      <c r="E337" t="n">
+        <v>379.99</v>
+      </c>
+      <c r="F337" t="n">
+        <v>369.1033333333333</v>
+      </c>
+      <c r="G337" t="n">
+        <v>355.2166666666666</v>
+      </c>
+      <c r="H337" t="n">
+        <v>361.0844444444445</v>
+      </c>
+      <c r="I337" t="n">
+        <v>356.6744444444445</v>
+      </c>
+      <c r="J337" t="n">
+        <v>353.6128571428571</v>
+      </c>
+      <c r="K337" t="n">
+        <v>349.06</v>
+      </c>
+      <c r="L337" t="n">
+        <v>355.0228571428571</v>
+      </c>
+      <c r="M337" t="n">
+        <v>361.5633333333333</v>
+      </c>
+      <c r="N337" t="n">
+        <v>349.67</v>
+      </c>
+      <c r="O337" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -15137,7 +15390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B349"/>
+  <dimension ref="A1:B354"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18635,6 +18888,56 @@
       </c>
       <c r="B349" t="n">
         <v>1.47</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>2025-03-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>1.37</v>
       </c>
     </row>
   </sheetData>
@@ -18808,28 +19111,28 @@
         <v>0.0507</v>
       </c>
       <c r="I2" t="n">
-        <v>1.03250240122769</v>
+        <v>1.107653851849384</v>
       </c>
       <c r="J2" t="n">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="K2" t="n">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1187187827847467</v>
+        <v>0.1372777927315421</v>
       </c>
       <c r="M2" t="n">
-        <v>16.13633555393277</v>
+        <v>16.12943467556743</v>
       </c>
       <c r="N2" t="n">
-        <v>413.9721847433664</v>
+        <v>412.4440346420048</v>
       </c>
       <c r="O2" t="n">
-        <v>20.34630641525303</v>
+        <v>20.30871819298315</v>
       </c>
       <c r="P2" t="n">
-        <v>319.8204229567355</v>
+        <v>319.0873171283088</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -18886,28 +19189,28 @@
         <v>0.07240000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7602761516607486</v>
+        <v>0.8666588623832622</v>
       </c>
       <c r="J3" t="n">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="K3" t="n">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="L3" t="n">
-        <v>0.08669898470367954</v>
+        <v>0.1088999358987615</v>
       </c>
       <c r="M3" t="n">
-        <v>14.27662404324873</v>
+        <v>14.61002444833305</v>
       </c>
       <c r="N3" t="n">
-        <v>327.1607868012882</v>
+        <v>337.1108426665436</v>
       </c>
       <c r="O3" t="n">
-        <v>18.08758653887489</v>
+        <v>18.3605784948771</v>
       </c>
       <c r="P3" t="n">
-        <v>318.3176613231066</v>
+        <v>317.303320445556</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -18964,28 +19267,28 @@
         <v>0.0552</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6548445433506916</v>
+        <v>0.7225933228999232</v>
       </c>
       <c r="J4" t="n">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="K4" t="n">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0381757495770626</v>
+        <v>0.04663434703523084</v>
       </c>
       <c r="M4" t="n">
-        <v>19.17941293022655</v>
+        <v>19.25390133704195</v>
       </c>
       <c r="N4" t="n">
-        <v>581.9810760819375</v>
+        <v>583.2324345140951</v>
       </c>
       <c r="O4" t="n">
-        <v>24.12428394962092</v>
+        <v>24.15020568264575</v>
       </c>
       <c r="P4" t="n">
-        <v>317.9456279529869</v>
+        <v>317.2901938709016</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -19042,28 +19345,28 @@
         <v>0.0562</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1214604035296382</v>
+        <v>0.2679140305960825</v>
       </c>
       <c r="J5" t="n">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="K5" t="n">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002047778943367384</v>
+        <v>0.009530727831667751</v>
       </c>
       <c r="M5" t="n">
-        <v>16.00902767428366</v>
+        <v>16.57578164656572</v>
       </c>
       <c r="N5" t="n">
-        <v>389.2996787254001</v>
+        <v>411.6033123573911</v>
       </c>
       <c r="O5" t="n">
-        <v>19.73067861796446</v>
+        <v>20.28800907820654</v>
       </c>
       <c r="P5" t="n">
-        <v>332.5866386481076</v>
+        <v>331.1770761426189</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -19120,28 +19423,28 @@
         <v>0.0675</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5226518228952161</v>
+        <v>0.6059965864443455</v>
       </c>
       <c r="J6" t="n">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="K6" t="n">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04493018865942167</v>
+        <v>0.05965675781797597</v>
       </c>
       <c r="M6" t="n">
-        <v>13.99422267046796</v>
+        <v>14.19155626698015</v>
       </c>
       <c r="N6" t="n">
-        <v>315.6179954467691</v>
+        <v>320.1988708069893</v>
       </c>
       <c r="O6" t="n">
-        <v>17.76564086788791</v>
+        <v>17.89410156467737</v>
       </c>
       <c r="P6" t="n">
-        <v>330.2362501890451</v>
+        <v>329.4354651950002</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -19198,28 +19501,28 @@
         <v>0.0895</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5313321134329714</v>
+        <v>0.5852148747320906</v>
       </c>
       <c r="J7" t="n">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="K7" t="n">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="L7" t="n">
-        <v>0.05944503594440398</v>
+        <v>0.07235718367474209</v>
       </c>
       <c r="M7" t="n">
-        <v>11.90387552340887</v>
+        <v>12.03284842143805</v>
       </c>
       <c r="N7" t="n">
-        <v>237.3185935892084</v>
+        <v>237.593324165229</v>
       </c>
       <c r="O7" t="n">
-        <v>15.40514828196108</v>
+        <v>15.41406254578036</v>
       </c>
       <c r="P7" t="n">
-        <v>332.8160850775606</v>
+        <v>332.2941964518094</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -19276,28 +19579,28 @@
         <v>0.0555</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4544655508903807</v>
+        <v>0.5250764660182585</v>
       </c>
       <c r="J8" t="n">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="K8" t="n">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03030301010619507</v>
+        <v>0.04070900060521665</v>
       </c>
       <c r="M8" t="n">
-        <v>14.87907123919383</v>
+        <v>14.97871152699319</v>
       </c>
       <c r="N8" t="n">
-        <v>356.1324867056983</v>
+        <v>357.1164431843962</v>
       </c>
       <c r="O8" t="n">
-        <v>18.87147282820549</v>
+        <v>18.89752478988706</v>
       </c>
       <c r="P8" t="n">
-        <v>334.3536663292344</v>
+        <v>333.6834162607681</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -19354,28 +19657,28 @@
         <v>0.0553</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5781016421660709</v>
+        <v>0.6081330047705412</v>
       </c>
       <c r="J9" t="n">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="K9" t="n">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="L9" t="n">
-        <v>0.05287818949228329</v>
+        <v>0.06013077077772022</v>
       </c>
       <c r="M9" t="n">
-        <v>14.31097900131091</v>
+        <v>14.18421948724661</v>
       </c>
       <c r="N9" t="n">
-        <v>314.2706758056942</v>
+        <v>309.6253218367937</v>
       </c>
       <c r="O9" t="n">
-        <v>17.72768106114543</v>
+        <v>17.59617349984915</v>
       </c>
       <c r="P9" t="n">
-        <v>333.0883093255956</v>
+        <v>332.7958106483968</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -19432,28 +19735,28 @@
         <v>0.0451</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5792438129639778</v>
+        <v>0.6017640355010403</v>
       </c>
       <c r="J10" t="n">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="K10" t="n">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="L10" t="n">
-        <v>0.04603557178216922</v>
+        <v>0.05101744938414965</v>
       </c>
       <c r="M10" t="n">
-        <v>15.42187639424299</v>
+        <v>15.29329012464993</v>
       </c>
       <c r="N10" t="n">
-        <v>373.0831174079003</v>
+        <v>368.0593902362858</v>
       </c>
       <c r="O10" t="n">
-        <v>19.31535962408933</v>
+        <v>19.18487399584073</v>
       </c>
       <c r="P10" t="n">
-        <v>335.3365236909433</v>
+        <v>335.1173206772631</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -19510,28 +19813,28 @@
         <v>0.0448</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4864239744666333</v>
+        <v>0.4972188621933732</v>
       </c>
       <c r="J11" t="n">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="K11" t="n">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02986732662849512</v>
+        <v>0.0323872255247718</v>
       </c>
       <c r="M11" t="n">
-        <v>16.45349621533709</v>
+        <v>16.21690354302102</v>
       </c>
       <c r="N11" t="n">
-        <v>423.9648945900929</v>
+        <v>415.9893654945749</v>
       </c>
       <c r="O11" t="n">
-        <v>20.5904078296204</v>
+        <v>20.39581735294212</v>
       </c>
       <c r="P11" t="n">
-        <v>334.186500299354</v>
+        <v>334.0855332733661</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -19588,28 +19891,28 @@
         <v>0.0411</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2912084454662844</v>
+        <v>0.324356094314706</v>
       </c>
       <c r="J12" t="n">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="K12" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01043306193688964</v>
+        <v>0.01338929813530543</v>
       </c>
       <c r="M12" t="n">
-        <v>16.82134617170327</v>
+        <v>16.64371365182443</v>
       </c>
       <c r="N12" t="n">
-        <v>426.7729704385078</v>
+        <v>419.7062492352012</v>
       </c>
       <c r="O12" t="n">
-        <v>20.65848422412709</v>
+        <v>20.48673349353677</v>
       </c>
       <c r="P12" t="n">
-        <v>341.9307486628539</v>
+        <v>341.6072513736844</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -19660,28 +19963,28 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>0.3503069241948959</v>
+        <v>0.3949606405904529</v>
       </c>
       <c r="J13" t="n">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="K13" t="n">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01403884434480718</v>
+        <v>0.01842873616953533</v>
       </c>
       <c r="M13" t="n">
-        <v>16.81488311021083</v>
+        <v>16.65788331578064</v>
       </c>
       <c r="N13" t="n">
-        <v>474.0041998049921</v>
+        <v>466.1627804351346</v>
       </c>
       <c r="O13" t="n">
-        <v>21.77163750857965</v>
+        <v>21.59080314474509</v>
       </c>
       <c r="P13" t="n">
-        <v>342.2878942418803</v>
+        <v>341.8588002980072</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -19738,28 +20041,28 @@
         <v>0.0477</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8898767793957931</v>
+        <v>0.8974148753034612</v>
       </c>
       <c r="J14" t="n">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="K14" t="n">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="L14" t="n">
-        <v>0.06857187643568241</v>
+        <v>0.07262519669204759</v>
       </c>
       <c r="M14" t="n">
-        <v>18.18965731338641</v>
+        <v>17.82799609207436</v>
       </c>
       <c r="N14" t="n">
-        <v>620.4876075289866</v>
+        <v>604.8756699712334</v>
       </c>
       <c r="O14" t="n">
-        <v>24.90958866639485</v>
+        <v>24.59422025540215</v>
       </c>
       <c r="P14" t="n">
-        <v>333.5373874723894</v>
+        <v>333.4669264031554</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -19797,7 +20100,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O332"/>
+  <dimension ref="A1:O337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40833,6 +41136,387 @@
         </is>
       </c>
     </row>
+    <row r="333">
+      <c r="A333" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:06:19+00:00</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>-38.42612781385543,174.64113076902026</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>-38.425444107059086,174.64090375227687</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>-38.42473505993342,174.6408696371938</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>-38.42405192747129,174.6406381457083</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>-38.423339743937966,174.64062780981345</t>
+        </is>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>-38.42263525378931,174.64055884162764</t>
+        </is>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>-38.42193620431021,174.6404488118693</t>
+        </is>
+      </c>
+      <c r="I333" t="inlineStr">
+        <is>
+          <t>-38.42123759194871,174.6403329445026</t>
+        </is>
+      </c>
+      <c r="J333" t="inlineStr">
+        <is>
+          <t>-38.42054315272297,174.64018491220418</t>
+        </is>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>-38.41984885702695,174.6400365066122</t>
+        </is>
+      </c>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>-38.419167023557996,174.63980548055193</t>
+        </is>
+      </c>
+      <c r="M333" t="inlineStr">
+        <is>
+          <t>-38.41847046263479,174.63967199675864</t>
+        </is>
+      </c>
+      <c r="N333" t="inlineStr">
+        <is>
+          <t>-38.41778125539677,174.63948974246927</t>
+        </is>
+      </c>
+      <c r="O333" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-11 22:06:15+00:00</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>-38.426123410685605,174.64116429668374</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>-38.425425034229306,174.6410489811544</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>-38.42473020843236,174.64090657843755</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>-38.42404415329673,174.64069734154012</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>-38.4233450800175,174.64058717897</t>
+        </is>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>-38.42263899744379,174.6405303362969</t>
+        </is>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>-38.421949034300646,174.64035385768722</t>
+        </is>
+      </c>
+      <c r="I334" t="inlineStr">
+        <is>
+          <t>-38.42124600099047,174.64027491326797</t>
+        </is>
+      </c>
+      <c r="J334" t="inlineStr">
+        <is>
+          <t>-38.42055817760002,174.64008535469316</t>
+        </is>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>-38.419847499069625,174.64004550462295</t>
+        </is>
+      </c>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>-38.41917524152035,174.63975102699732</t>
+        </is>
+      </c>
+      <c r="M334" t="inlineStr">
+        <is>
+          <t>-38.418490944738956,174.63953627920088</t>
+        </is>
+      </c>
+      <c r="N334" t="inlineStr">
+        <is>
+          <t>-38.41777925245873,174.639503014171</t>
+        </is>
+      </c>
+      <c r="O334" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>-38.42610529346221,174.6413022483489</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>-38.42542380850401,174.64105831431422</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>-38.42471440759201,174.64102689162553</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>-38.424043129595944,174.64070513641005</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>-38.423338220754225,174.64063940786582</t>
+        </is>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>-38.42263823091007,174.64053617292367</t>
+        </is>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>-38.42195581954015,174.64030364019203</t>
+        </is>
+      </c>
+      <c r="I335" t="inlineStr">
+        <is>
+          <t>-38.42123889945957,174.6403239213161</t>
+        </is>
+      </c>
+      <c r="J335" t="inlineStr">
+        <is>
+          <t>-38.420521682232064,174.640327178461</t>
+        </is>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>-38.419828199027094,174.6401733888116</t>
+        </is>
+      </c>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>-38.4191509003717,174.63991231488492</t>
+        </is>
+      </c>
+      <c r="M335" t="inlineStr">
+        <is>
+          <t>-38.418468363493226,174.63968590592913</t>
+        </is>
+      </c>
+      <c r="N335" t="inlineStr">
+        <is>
+          <t>-38.41777719859701,174.63951662328805</t>
+        </is>
+      </c>
+      <c r="O335" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>-38.42611875198639,174.6411997699762</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>-38.42542757697925,174.6410296196262</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr"/>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>-38.424048871215355,174.64066141735373</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>-38.423341074250104,174.6406176803452</t>
+        </is>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>-38.42264740951418,174.64046628401633</t>
+        </is>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>-38.421958795277824,174.6402816167319</t>
+        </is>
+      </c>
+      <c r="I336" t="inlineStr">
+        <is>
+          <t>-38.42122971241321,174.64038732139576</t>
+        </is>
+      </c>
+      <c r="J336" t="inlineStr">
+        <is>
+          <t>-38.42056628168712,174.64003165532006</t>
+        </is>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>-38.41984398535187,174.64006878697407</t>
+        </is>
+      </c>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>-38.41916567531509,174.63981441421146</t>
+        </is>
+      </c>
+      <c r="M336" t="inlineStr">
+        <is>
+          <t>-38.41848310271415,174.63958824178934</t>
+        </is>
+      </c>
+      <c r="N336" t="inlineStr">
+        <is>
+          <t>-38.41778846935612,174.63944194184208</t>
+        </is>
+      </c>
+      <c r="O336" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:06:00+00:00</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>-38.42611524229408,174.6412264941908</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>-38.42540720179379,174.6411847638232</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>-38.42469605472515,174.64116663560452</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>-38.42405517659273,174.64061340546152</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>-38.42334357167392,174.64059866405614</t>
+        </is>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>-38.42262750929865,174.64061781037307</t>
+        </is>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>-38.42194092723326,174.64041385779802</t>
+        </is>
+      </c>
+      <c r="I337" t="inlineStr">
+        <is>
+          <t>-38.421239806193455,174.64031766390502</t>
+        </is>
+      </c>
+      <c r="J337" t="inlineStr">
+        <is>
+          <t>-38.4205419305537,174.64019301048913</t>
+        </is>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>-38.41984152404924,174.6400850958659</t>
+        </is>
+      </c>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>-38.41915896076444,174.63985890575867</t>
+        </is>
+      </c>
+      <c r="M337" t="inlineStr">
+        <is>
+          <t>-38.41847737111881,174.63962622021035</t>
+        </is>
+      </c>
+      <c r="N337" t="inlineStr">
+        <is>
+          <t>-38.4177644849884,174.63960086482905</t>
+        </is>
+      </c>
+      <c r="O337" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0258/nzd0258.xlsx
+++ b/data/nzd0258/nzd0258.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O337"/>
+  <dimension ref="A1:O339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15379,6 +15379,102 @@
         </is>
       </c>
     </row>
+    <row r="338">
+      <c r="A338" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>347.2288888888889</v>
+      </c>
+      <c r="C338" t="n">
+        <v>342.5030769230769</v>
+      </c>
+      <c r="D338" t="n">
+        <v>320.79</v>
+      </c>
+      <c r="E338" t="inlineStr"/>
+      <c r="F338" t="n">
+        <v>354.2566666666667</v>
+      </c>
+      <c r="G338" t="n">
+        <v>349.5633333333333</v>
+      </c>
+      <c r="H338" t="n">
+        <v>354.3688888888889</v>
+      </c>
+      <c r="I338" t="n">
+        <v>351.2388888888889</v>
+      </c>
+      <c r="J338" t="n">
+        <v>352.2</v>
+      </c>
+      <c r="K338" t="n">
+        <v>340.01</v>
+      </c>
+      <c r="L338" t="n">
+        <v>354.76</v>
+      </c>
+      <c r="M338" t="n">
+        <v>354.6066666666667</v>
+      </c>
+      <c r="N338" t="inlineStr"/>
+      <c r="O338" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>354.9955555555555</v>
+      </c>
+      <c r="C339" t="n">
+        <v>353.7292307692308</v>
+      </c>
+      <c r="D339" t="n">
+        <v>338.83</v>
+      </c>
+      <c r="E339" t="n">
+        <v>351.56</v>
+      </c>
+      <c r="F339" t="n">
+        <v>350.8366666666667</v>
+      </c>
+      <c r="G339" t="n">
+        <v>349.6333333333333</v>
+      </c>
+      <c r="H339" t="n">
+        <v>346.7855555555556</v>
+      </c>
+      <c r="I339" t="n">
+        <v>340.0655555555555</v>
+      </c>
+      <c r="J339" t="n">
+        <v>333.1014285714285</v>
+      </c>
+      <c r="K339" t="n">
+        <v>338.7</v>
+      </c>
+      <c r="L339" t="n">
+        <v>340.5014285714286</v>
+      </c>
+      <c r="M339" t="n">
+        <v>341.9766666666667</v>
+      </c>
+      <c r="N339" t="inlineStr"/>
+      <c r="O339" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -15390,7 +15486,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B354"/>
+  <dimension ref="A1:B356"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18938,6 +19034,26 @@
       </c>
       <c r="B354" t="n">
         <v>1.37</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>-0.47</v>
       </c>
     </row>
   </sheetData>
@@ -19111,28 +19227,28 @@
         <v>0.0507</v>
       </c>
       <c r="I2" t="n">
-        <v>1.107653851849384</v>
+        <v>1.114036158190523</v>
       </c>
       <c r="J2" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K2" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1372777927315421</v>
+        <v>0.1406026579916384</v>
       </c>
       <c r="M2" t="n">
-        <v>16.12943467556743</v>
+        <v>16.02187433998527</v>
       </c>
       <c r="N2" t="n">
-        <v>412.4440346420048</v>
+        <v>409.2041979148439</v>
       </c>
       <c r="O2" t="n">
-        <v>20.30871819298315</v>
+        <v>20.22879625471679</v>
       </c>
       <c r="P2" t="n">
-        <v>319.0873171283088</v>
+        <v>319.0246138746979</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -19189,28 +19305,28 @@
         <v>0.07240000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8666588623832622</v>
+        <v>0.8796522802442228</v>
       </c>
       <c r="J3" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K3" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1088999358987615</v>
+        <v>0.1131327272605414</v>
       </c>
       <c r="M3" t="n">
-        <v>14.61002444833305</v>
+        <v>14.5720972039618</v>
       </c>
       <c r="N3" t="n">
-        <v>337.1108426665436</v>
+        <v>335.3328609836732</v>
       </c>
       <c r="O3" t="n">
-        <v>18.3605784948771</v>
+        <v>18.31209602922814</v>
       </c>
       <c r="P3" t="n">
-        <v>317.303320445556</v>
+        <v>317.1785322761276</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -19267,28 +19383,28 @@
         <v>0.0552</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7225933228999232</v>
+        <v>0.7145390171401161</v>
       </c>
       <c r="J4" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K4" t="n">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04663434703523084</v>
+        <v>0.04621509586196526</v>
       </c>
       <c r="M4" t="n">
-        <v>19.25390133704195</v>
+        <v>19.17606734858616</v>
       </c>
       <c r="N4" t="n">
-        <v>583.2324345140951</v>
+        <v>579.7185305398461</v>
       </c>
       <c r="O4" t="n">
-        <v>24.15020568264575</v>
+        <v>24.0773447568424</v>
       </c>
       <c r="P4" t="n">
-        <v>317.2901938709016</v>
+        <v>317.3686560345821</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -19345,28 +19461,28 @@
         <v>0.0562</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2679140305960825</v>
+        <v>0.2778899195544934</v>
       </c>
       <c r="J5" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K5" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L5" t="n">
-        <v>0.009530727831667751</v>
+        <v>0.01030582703453897</v>
       </c>
       <c r="M5" t="n">
-        <v>16.57578164656572</v>
+        <v>16.57220531506362</v>
       </c>
       <c r="N5" t="n">
-        <v>411.6033123573911</v>
+        <v>410.6977714279474</v>
       </c>
       <c r="O5" t="n">
-        <v>20.28800907820654</v>
+        <v>20.26567964386952</v>
       </c>
       <c r="P5" t="n">
-        <v>331.1770761426189</v>
+        <v>331.0803805422831</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -19423,28 +19539,28 @@
         <v>0.0675</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6059965864443455</v>
+        <v>0.6165151185271653</v>
       </c>
       <c r="J6" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K6" t="n">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05965675781797597</v>
+        <v>0.06235459172005942</v>
       </c>
       <c r="M6" t="n">
-        <v>14.19155626698015</v>
+        <v>14.14397745993548</v>
       </c>
       <c r="N6" t="n">
-        <v>320.1988708069893</v>
+        <v>318.2910963299877</v>
       </c>
       <c r="O6" t="n">
-        <v>17.89410156467737</v>
+        <v>17.84071456892878</v>
       </c>
       <c r="P6" t="n">
-        <v>329.4354651950002</v>
+        <v>329.3337549510799</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -19501,28 +19617,28 @@
         <v>0.0895</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5852148747320906</v>
+        <v>0.5885671266825205</v>
       </c>
       <c r="J7" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K7" t="n">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="L7" t="n">
-        <v>0.07235718367474209</v>
+        <v>0.07408590924817504</v>
       </c>
       <c r="M7" t="n">
-        <v>12.03284842143805</v>
+        <v>11.96767377829316</v>
       </c>
       <c r="N7" t="n">
-        <v>237.593324165229</v>
+        <v>235.9328715871461</v>
       </c>
       <c r="O7" t="n">
-        <v>15.41406254578036</v>
+        <v>15.36010649660822</v>
       </c>
       <c r="P7" t="n">
-        <v>332.2941964518094</v>
+        <v>332.261518354951</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -19579,28 +19695,28 @@
         <v>0.0555</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5250764660182585</v>
+        <v>0.5300718535767668</v>
       </c>
       <c r="J8" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K8" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04070900060521665</v>
+        <v>0.04203102971215777</v>
       </c>
       <c r="M8" t="n">
-        <v>14.97871152699319</v>
+        <v>14.89759111629319</v>
       </c>
       <c r="N8" t="n">
-        <v>357.1164431843962</v>
+        <v>354.6977663920478</v>
       </c>
       <c r="O8" t="n">
-        <v>18.89752478988706</v>
+        <v>18.83342152642604</v>
       </c>
       <c r="P8" t="n">
-        <v>333.6834162607681</v>
+        <v>333.6357406458371</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -19657,28 +19773,28 @@
         <v>0.0553</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6081330047705412</v>
+        <v>0.6043855090239232</v>
       </c>
       <c r="J9" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K9" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L9" t="n">
-        <v>0.06013077077772022</v>
+        <v>0.06024390675089364</v>
       </c>
       <c r="M9" t="n">
-        <v>14.18421948724661</v>
+        <v>14.11951658424809</v>
       </c>
       <c r="N9" t="n">
-        <v>309.6253218367937</v>
+        <v>307.5495260918444</v>
       </c>
       <c r="O9" t="n">
-        <v>17.59617349984915</v>
+        <v>17.53709001208138</v>
       </c>
       <c r="P9" t="n">
-        <v>332.7958106483968</v>
+        <v>332.8325881692645</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -19735,28 +19851,28 @@
         <v>0.0451</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6017640355010403</v>
+        <v>0.5906545499616012</v>
       </c>
       <c r="J10" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K10" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L10" t="n">
-        <v>0.05101744938414965</v>
+        <v>0.04978715806326617</v>
       </c>
       <c r="M10" t="n">
-        <v>15.29329012464993</v>
+        <v>15.25401022153529</v>
       </c>
       <c r="N10" t="n">
-        <v>368.0593902362858</v>
+        <v>366.3528455418846</v>
       </c>
       <c r="O10" t="n">
-        <v>19.18487399584073</v>
+        <v>19.14034601416298</v>
       </c>
       <c r="P10" t="n">
-        <v>335.1173206772631</v>
+        <v>335.2262385676155</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -19813,28 +19929,28 @@
         <v>0.0448</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4972188621933732</v>
+        <v>0.4863610780009836</v>
       </c>
       <c r="J11" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K11" t="n">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0323872255247718</v>
+        <v>0.03148060684218879</v>
       </c>
       <c r="M11" t="n">
-        <v>16.21690354302102</v>
+        <v>16.15106456620647</v>
       </c>
       <c r="N11" t="n">
-        <v>415.9893654945749</v>
+        <v>413.0969275964875</v>
       </c>
       <c r="O11" t="n">
-        <v>20.39581735294212</v>
+        <v>20.32478604060785</v>
       </c>
       <c r="P11" t="n">
-        <v>334.0855332733661</v>
+        <v>334.1878821767919</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -19891,28 +20007,28 @@
         <v>0.0411</v>
       </c>
       <c r="I12" t="n">
-        <v>0.324356094314706</v>
+        <v>0.320933549127046</v>
       </c>
       <c r="J12" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K12" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01338929813530543</v>
+        <v>0.01330590886357952</v>
       </c>
       <c r="M12" t="n">
-        <v>16.64371365182443</v>
+        <v>16.56454891122354</v>
       </c>
       <c r="N12" t="n">
-        <v>419.7062492352012</v>
+        <v>416.6720252773711</v>
       </c>
       <c r="O12" t="n">
-        <v>20.48673349353677</v>
+        <v>20.4125457813907</v>
       </c>
       <c r="P12" t="n">
-        <v>341.6072513736844</v>
+        <v>341.6409515089834</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -19963,28 +20079,28 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>0.3949606405904529</v>
+        <v>0.3891307187277083</v>
       </c>
       <c r="J13" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K13" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01842873616953533</v>
+        <v>0.01817466470724993</v>
       </c>
       <c r="M13" t="n">
-        <v>16.65788331578064</v>
+        <v>16.56593673344265</v>
       </c>
       <c r="N13" t="n">
-        <v>466.1627804351346</v>
+        <v>462.3843578006507</v>
       </c>
       <c r="O13" t="n">
-        <v>21.59080314474509</v>
+        <v>21.5031243729987</v>
       </c>
       <c r="P13" t="n">
-        <v>341.8588002980072</v>
+        <v>341.915262140707</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -20044,7 +20160,7 @@
         <v>0.8974148753034612</v>
       </c>
       <c r="J14" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K14" t="n">
         <v>191</v>
@@ -20100,7 +20216,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O337"/>
+  <dimension ref="A1:O339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41517,6 +41633,148 @@
         </is>
       </c>
     </row>
+    <row r="338">
+      <c r="A338" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>-38.426092889912695,174.6413966931037</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>-38.425390445439284,174.64131235167042</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>-38.424662790660214,174.64141991431057</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr"/>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>-38.423321544785004,174.64076638391106</t>
+        </is>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>-38.42261912187328,174.6406816743374</t>
+        </is>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>-38.42193068489976,174.6404896605929</t>
+        </is>
+      </c>
+      <c r="I338" t="inlineStr">
+        <is>
+          <t>-38.421230934694925,174.64037888640786</t>
+        </is>
+      </c>
+      <c r="J338" t="inlineStr">
+        <is>
+          <t>-38.42053953228737,174.64020890176565</t>
+        </is>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>-38.419826162075225,174.64018688581936</t>
+        </is>
+      </c>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>-38.41915851458208,174.63986186222087</t>
+        </is>
+      </c>
+      <c r="M338" t="inlineStr">
+        <is>
+          <t>-38.41846556274923,174.63970446398542</t>
+        </is>
+      </c>
+      <c r="N338" t="inlineStr"/>
+      <c r="O338" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>-38.42610441314898,174.64130895136694</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>-38.42540710136107,174.64118552855098</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>-38.424689556257356,174.6412161164777</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>-38.424012996956144,174.64093457660607</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>-38.423316470753065,174.64080501895856</t>
+        </is>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>-38.422619225727225,174.64068088356908</t>
+        </is>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>-38.421919119003114,174.64057525852584</t>
+        </is>
+      </c>
+      <c r="I339" t="inlineStr">
+        <is>
+          <t>-38.42121269833439,174.64050473539425</t>
+        </is>
+      </c>
+      <c r="J339" t="inlineStr">
+        <is>
+          <t>-38.42050711304621,174.64042371507898</t>
+        </is>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>-38.41982393840103,174.6402016200519</t>
+        </is>
+      </c>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>-38.41913431150321,174.64002223416884</t>
+        </is>
+      </c>
+      <c r="M339" t="inlineStr">
+        <is>
+          <t>-38.418444124230724,174.63984651742007</t>
+        </is>
+      </c>
+      <c r="N339" t="inlineStr"/>
+      <c r="O339" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0258/nzd0258.xlsx
+++ b/data/nzd0258/nzd0258.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O339"/>
+  <dimension ref="A1:O340"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15475,6 +15475,51 @@
         </is>
       </c>
     </row>
+    <row r="340">
+      <c r="A340" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:53+00:00</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>356.1155555555555</v>
+      </c>
+      <c r="C340" t="n">
+        <v>351.5115384615385</v>
+      </c>
+      <c r="D340" t="n">
+        <v>342.78</v>
+      </c>
+      <c r="E340" t="n">
+        <v>340.3</v>
+      </c>
+      <c r="F340" t="n">
+        <v>341.3466666666667</v>
+      </c>
+      <c r="G340" t="n">
+        <v>356.2733333333333</v>
+      </c>
+      <c r="H340" t="n">
+        <v>357.8555555555556</v>
+      </c>
+      <c r="I340" t="n">
+        <v>354.6255555555555</v>
+      </c>
+      <c r="J340" t="n">
+        <v>345.0014285714286</v>
+      </c>
+      <c r="K340" t="n">
+        <v>339.23</v>
+      </c>
+      <c r="L340" t="inlineStr"/>
+      <c r="M340" t="inlineStr"/>
+      <c r="N340" t="inlineStr"/>
+      <c r="O340" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -15486,7 +15531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B356"/>
+  <dimension ref="A1:B357"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19054,6 +19099,16 @@
       </c>
       <c r="B356" t="n">
         <v>-0.47</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>0.16</v>
       </c>
     </row>
   </sheetData>
@@ -19227,28 +19282,28 @@
         <v>0.0507</v>
       </c>
       <c r="I2" t="n">
-        <v>1.114036158190523</v>
+        <v>1.121078137906732</v>
       </c>
       <c r="J2" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K2" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1406026579916384</v>
+        <v>0.1430651630432129</v>
       </c>
       <c r="M2" t="n">
-        <v>16.02187433998527</v>
+        <v>15.98665946599064</v>
       </c>
       <c r="N2" t="n">
-        <v>409.2041979148439</v>
+        <v>407.7956815819862</v>
       </c>
       <c r="O2" t="n">
-        <v>20.22879625471679</v>
+        <v>20.19395160888493</v>
       </c>
       <c r="P2" t="n">
-        <v>319.0246138746979</v>
+        <v>318.9551180461661</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -19305,28 +19360,28 @@
         <v>0.07240000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8796522802442228</v>
+        <v>0.8884042235250675</v>
       </c>
       <c r="J3" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K3" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1131327272605414</v>
+        <v>0.1157624526513388</v>
       </c>
       <c r="M3" t="n">
-        <v>14.5720972039618</v>
+        <v>14.56602892994627</v>
       </c>
       <c r="N3" t="n">
-        <v>335.3328609836732</v>
+        <v>334.5826540797852</v>
       </c>
       <c r="O3" t="n">
-        <v>18.31209602922814</v>
+        <v>18.29160064291218</v>
       </c>
       <c r="P3" t="n">
-        <v>317.1785322761276</v>
+        <v>317.0940789899742</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -19383,28 +19438,28 @@
         <v>0.0552</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7145390171401161</v>
+        <v>0.7195579168403513</v>
       </c>
       <c r="J4" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K4" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04621509586196526</v>
+        <v>0.04714317467159046</v>
       </c>
       <c r="M4" t="n">
-        <v>19.17606734858616</v>
+        <v>19.13182887488405</v>
       </c>
       <c r="N4" t="n">
-        <v>579.7185305398461</v>
+        <v>577.7480932267663</v>
       </c>
       <c r="O4" t="n">
-        <v>24.0773447568424</v>
+        <v>24.03639101917686</v>
       </c>
       <c r="P4" t="n">
-        <v>317.3686560345821</v>
+        <v>317.3194603934335</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -19461,28 +19516,28 @@
         <v>0.0562</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2778899195544934</v>
+        <v>0.2794613769129624</v>
       </c>
       <c r="J5" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K5" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01030582703453897</v>
+        <v>0.01049994319697733</v>
       </c>
       <c r="M5" t="n">
-        <v>16.57220531506362</v>
+        <v>16.51660834171298</v>
       </c>
       <c r="N5" t="n">
-        <v>410.6977714279474</v>
+        <v>409.0987908614496</v>
       </c>
       <c r="O5" t="n">
-        <v>20.26567964386952</v>
+        <v>20.22619071554131</v>
       </c>
       <c r="P5" t="n">
-        <v>331.0803805422831</v>
+        <v>331.0650770705989</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -19539,28 +19594,28 @@
         <v>0.0675</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6165151185271653</v>
+        <v>0.6140206704774294</v>
       </c>
       <c r="J6" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K6" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L6" t="n">
-        <v>0.06235459172005942</v>
+        <v>0.06228314606093766</v>
       </c>
       <c r="M6" t="n">
-        <v>14.14397745993548</v>
+        <v>14.10535356411311</v>
       </c>
       <c r="N6" t="n">
-        <v>318.2910963299877</v>
+        <v>317.1701134910968</v>
       </c>
       <c r="O6" t="n">
-        <v>17.84071456892878</v>
+        <v>17.80927043680051</v>
       </c>
       <c r="P6" t="n">
-        <v>329.3337549510799</v>
+        <v>329.3580076900802</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -19617,28 +19672,28 @@
         <v>0.0895</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5885671266825205</v>
+        <v>0.5946952500066294</v>
       </c>
       <c r="J7" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K7" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L7" t="n">
-        <v>0.07408590924817504</v>
+        <v>0.07593069766989125</v>
       </c>
       <c r="M7" t="n">
-        <v>11.96767377829316</v>
+        <v>11.96300281639897</v>
       </c>
       <c r="N7" t="n">
-        <v>235.9328715871461</v>
+        <v>235.3785165428512</v>
       </c>
       <c r="O7" t="n">
-        <v>15.36010649660822</v>
+        <v>15.34205059771513</v>
       </c>
       <c r="P7" t="n">
-        <v>332.261518354951</v>
+        <v>332.2014755084315</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -19695,28 +19750,28 @@
         <v>0.0555</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5300718535767668</v>
+        <v>0.5375480970381439</v>
       </c>
       <c r="J8" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K8" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04203102971215777</v>
+        <v>0.04343351376573101</v>
       </c>
       <c r="M8" t="n">
-        <v>14.89759111629319</v>
+        <v>14.88315042203221</v>
       </c>
       <c r="N8" t="n">
-        <v>354.6977663920478</v>
+        <v>353.8187169555721</v>
       </c>
       <c r="O8" t="n">
-        <v>18.83342152642604</v>
+        <v>18.81006956275208</v>
       </c>
       <c r="P8" t="n">
-        <v>333.6357406458371</v>
+        <v>333.5639818180849</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -19773,28 +19828,28 @@
         <v>0.0553</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6043855090239232</v>
+        <v>0.6090555373760136</v>
       </c>
       <c r="J9" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K9" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L9" t="n">
-        <v>0.06024390675089364</v>
+        <v>0.06153097867909874</v>
       </c>
       <c r="M9" t="n">
-        <v>14.11951658424809</v>
+        <v>14.08885301034091</v>
       </c>
       <c r="N9" t="n">
-        <v>307.5495260918444</v>
+        <v>306.5346238501075</v>
       </c>
       <c r="O9" t="n">
-        <v>17.53709001208138</v>
+        <v>17.50813022141735</v>
       </c>
       <c r="P9" t="n">
-        <v>332.8325881692645</v>
+        <v>332.7865824651688</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -19851,28 +19906,28 @@
         <v>0.0451</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5906545499616012</v>
+        <v>0.5868838942534117</v>
       </c>
       <c r="J10" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K10" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L10" t="n">
-        <v>0.04978715806326617</v>
+        <v>0.04951601413637052</v>
       </c>
       <c r="M10" t="n">
-        <v>15.25401022153529</v>
+        <v>15.21674440987795</v>
       </c>
       <c r="N10" t="n">
-        <v>366.3528455418846</v>
+        <v>365.0337021927645</v>
       </c>
       <c r="O10" t="n">
-        <v>19.14034601416298</v>
+        <v>19.10585518088014</v>
       </c>
       <c r="P10" t="n">
-        <v>335.2262385676155</v>
+        <v>335.2633766492903</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -19929,28 +19984,28 @@
         <v>0.0448</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4863610780009836</v>
+        <v>0.480946534592337</v>
       </c>
       <c r="J11" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K11" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L11" t="n">
-        <v>0.03148060684218879</v>
+        <v>0.03102590158254059</v>
       </c>
       <c r="M11" t="n">
-        <v>16.15106456620647</v>
+        <v>16.11817351053884</v>
       </c>
       <c r="N11" t="n">
-        <v>413.0969275964875</v>
+        <v>411.6687117391239</v>
       </c>
       <c r="O11" t="n">
-        <v>20.32478604060785</v>
+        <v>20.28962078845053</v>
       </c>
       <c r="P11" t="n">
-        <v>334.1878821767919</v>
+        <v>334.2391886857919</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -20010,7 +20065,7 @@
         <v>0.320933549127046</v>
       </c>
       <c r="J12" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K12" t="n">
         <v>240</v>
@@ -20082,7 +20137,7 @@
         <v>0.3891307187277083</v>
       </c>
       <c r="J13" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K13" t="n">
         <v>219</v>
@@ -20160,7 +20215,7 @@
         <v>0.8974148753034612</v>
       </c>
       <c r="J14" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K14" t="n">
         <v>191</v>
@@ -20216,7 +20271,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O339"/>
+  <dimension ref="A1:O340"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22666,7 +22721,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>-38.42397446628984,174.64122795699896</t>
+          <t>-38.42397446628985,174.64122795699896</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -32566,7 +32621,7 @@
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>-38.41912955136905,174.6400537750965</t>
+          <t>-38.41912955136906,174.6400537750965</t>
         </is>
       </c>
       <c r="M189" t="inlineStr">
@@ -35186,7 +35241,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>-38.42397865024804,174.64119609976817</t>
+          <t>-38.423978650248046,174.64119609976817</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
@@ -41775,6 +41830,71 @@
         </is>
       </c>
     </row>
+    <row r="340">
+      <c r="A340" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:53+00:00</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>-38.426106074863526,174.64129629847878</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>-38.42540381104552,174.64121058207476</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>-38.42469541674864,174.64117149331625</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>-38.42399629102697,174.64106177969813</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>-38.42330239099014,174.64091222553625</t>
+        </is>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>-38.42262907699166,174.64060587353362</t>
+        </is>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>-38.42193600264945,174.64045030434656</t>
+        </is>
+      </c>
+      <c r="I340" t="inlineStr">
+        <is>
+          <t>-38.42123646215726,174.6403407412363</t>
+        </is>
+      </c>
+      <c r="J340" t="inlineStr">
+        <is>
+          <t>-38.42052731297821,174.64028986852523</t>
+        </is>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>-38.419824838055696,174.64019565887395</t>
+        </is>
+      </c>
+      <c r="L340" t="inlineStr"/>
+      <c r="M340" t="inlineStr"/>
+      <c r="N340" t="inlineStr"/>
+      <c r="O340" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0258/nzd0258.xlsx
+++ b/data/nzd0258/nzd0258.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O340"/>
+  <dimension ref="A1:O341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15520,6 +15520,53 @@
         </is>
       </c>
     </row>
+    <row r="341">
+      <c r="A341" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>360.0377777777778</v>
+      </c>
+      <c r="C341" t="n">
+        <v>355.3353846153847</v>
+      </c>
+      <c r="D341" t="n">
+        <v>365.86</v>
+      </c>
+      <c r="E341" t="n">
+        <v>350.96</v>
+      </c>
+      <c r="F341" t="n">
+        <v>345.6433333333333</v>
+      </c>
+      <c r="G341" t="n">
+        <v>356.3666666666667</v>
+      </c>
+      <c r="H341" t="n">
+        <v>359.2177777777778</v>
+      </c>
+      <c r="I341" t="n">
+        <v>358.6977777777778</v>
+      </c>
+      <c r="J341" t="n">
+        <v>355.7271428571428</v>
+      </c>
+      <c r="K341" t="n">
+        <v>366.38</v>
+      </c>
+      <c r="L341" t="n">
+        <v>357.0671428571428</v>
+      </c>
+      <c r="M341" t="inlineStr"/>
+      <c r="N341" t="inlineStr"/>
+      <c r="O341" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -15531,7 +15578,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B357"/>
+  <dimension ref="A1:B358"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19109,6 +19156,16 @@
       </c>
       <c r="B357" t="n">
         <v>0.16</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>0.17</v>
       </c>
     </row>
   </sheetData>
@@ -19282,28 +19339,28 @@
         <v>0.0507</v>
       </c>
       <c r="I2" t="n">
-        <v>1.121078137906732</v>
+        <v>1.131068540421981</v>
       </c>
       <c r="J2" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K2" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1430651630432129</v>
+        <v>0.1460884993332339</v>
       </c>
       <c r="M2" t="n">
-        <v>15.98665946599064</v>
+        <v>15.96514293309323</v>
       </c>
       <c r="N2" t="n">
-        <v>407.7956815819862</v>
+        <v>406.7332473593136</v>
       </c>
       <c r="O2" t="n">
-        <v>20.19395160888493</v>
+        <v>20.16762869946077</v>
       </c>
       <c r="P2" t="n">
-        <v>318.9551180461661</v>
+        <v>318.8564143641785</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -19360,28 +19417,28 @@
         <v>0.07240000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8884042235250675</v>
+        <v>0.8997345295851759</v>
       </c>
       <c r="J3" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K3" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1157624526513388</v>
+        <v>0.1188959923433202</v>
       </c>
       <c r="M3" t="n">
-        <v>14.56602892994627</v>
+        <v>14.57461412165123</v>
       </c>
       <c r="N3" t="n">
-        <v>334.5826540797852</v>
+        <v>334.2223631043776</v>
       </c>
       <c r="O3" t="n">
-        <v>18.29160064291218</v>
+        <v>18.28174945415174</v>
       </c>
       <c r="P3" t="n">
-        <v>317.0940789899742</v>
+        <v>316.9846214641008</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -19438,28 +19495,28 @@
         <v>0.0552</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7195579168403513</v>
+        <v>0.7403607144114537</v>
       </c>
       <c r="J4" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K4" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04714317467159046</v>
+        <v>0.04983246000460995</v>
       </c>
       <c r="M4" t="n">
-        <v>19.13182887488405</v>
+        <v>19.17490415859803</v>
       </c>
       <c r="N4" t="n">
-        <v>577.7480932267663</v>
+        <v>578.9567583305811</v>
       </c>
       <c r="O4" t="n">
-        <v>24.03639101917686</v>
+        <v>24.06152028302828</v>
       </c>
       <c r="P4" t="n">
-        <v>317.3194603934335</v>
+        <v>317.1153121105326</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -19516,28 +19573,28 @@
         <v>0.0562</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2794613769129624</v>
+        <v>0.2887255591655448</v>
       </c>
       <c r="J5" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K5" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01049994319697733</v>
+        <v>0.01126618465728246</v>
       </c>
       <c r="M5" t="n">
-        <v>16.51660834171298</v>
+        <v>16.50838737470135</v>
       </c>
       <c r="N5" t="n">
-        <v>409.0987908614496</v>
+        <v>408.1273078139683</v>
       </c>
       <c r="O5" t="n">
-        <v>20.22619071554131</v>
+        <v>20.20216096891539</v>
       </c>
       <c r="P5" t="n">
-        <v>331.0650770705989</v>
+        <v>330.974753410871</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -19594,28 +19651,28 @@
         <v>0.0675</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6140206704774294</v>
+        <v>0.6144539944621251</v>
       </c>
       <c r="J6" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K6" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L6" t="n">
-        <v>0.06228314606093766</v>
+        <v>0.06277415431893907</v>
       </c>
       <c r="M6" t="n">
-        <v>14.10535356411311</v>
+        <v>14.0560466226073</v>
       </c>
       <c r="N6" t="n">
-        <v>317.1701134910968</v>
+        <v>316.0098231697413</v>
       </c>
       <c r="O6" t="n">
-        <v>17.80927043680051</v>
+        <v>17.77666513071958</v>
       </c>
       <c r="P6" t="n">
-        <v>329.3580076900802</v>
+        <v>329.3537896353914</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -19672,28 +19729,28 @@
         <v>0.0895</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5946952500066294</v>
+        <v>0.600761073447274</v>
       </c>
       <c r="J7" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K7" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L7" t="n">
-        <v>0.07593069766989125</v>
+        <v>0.07778278208745415</v>
       </c>
       <c r="M7" t="n">
-        <v>11.96300281639897</v>
+        <v>11.95790677013754</v>
       </c>
       <c r="N7" t="n">
-        <v>235.3785165428512</v>
+        <v>234.8271385454997</v>
       </c>
       <c r="O7" t="n">
-        <v>15.34205059771513</v>
+        <v>15.3240705605756</v>
       </c>
       <c r="P7" t="n">
-        <v>332.2014755084315</v>
+        <v>332.1419758978194</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -19750,28 +19807,28 @@
         <v>0.0555</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5375480970381439</v>
+        <v>0.545808480863734</v>
       </c>
       <c r="J8" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K8" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04343351376573101</v>
+        <v>0.0449718450590203</v>
       </c>
       <c r="M8" t="n">
-        <v>14.88315042203221</v>
+        <v>14.87304658335075</v>
       </c>
       <c r="N8" t="n">
-        <v>353.8187169555721</v>
+        <v>353.046629341795</v>
       </c>
       <c r="O8" t="n">
-        <v>18.81006956275208</v>
+        <v>18.78953510180055</v>
       </c>
       <c r="P8" t="n">
-        <v>333.5639818180849</v>
+        <v>333.4846075351481</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -19828,28 +19885,28 @@
         <v>0.0553</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6090555373760136</v>
+        <v>0.6165597420332993</v>
       </c>
       <c r="J9" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K9" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L9" t="n">
-        <v>0.06153097867909874</v>
+        <v>0.06332798177851373</v>
       </c>
       <c r="M9" t="n">
-        <v>14.08885301034091</v>
+        <v>14.07232441792489</v>
       </c>
       <c r="N9" t="n">
-        <v>306.5346238501075</v>
+        <v>305.7783350659941</v>
       </c>
       <c r="O9" t="n">
-        <v>17.50813022141735</v>
+        <v>17.48651866627529</v>
       </c>
       <c r="P9" t="n">
-        <v>332.7865824651688</v>
+        <v>332.7125740557693</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -19906,28 +19963,28 @@
         <v>0.0451</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5868838942534117</v>
+        <v>0.5908030422785395</v>
       </c>
       <c r="J10" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K10" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L10" t="n">
-        <v>0.04951601413637052</v>
+        <v>0.05047855982725924</v>
       </c>
       <c r="M10" t="n">
-        <v>15.21674440987795</v>
+        <v>15.17721540317588</v>
       </c>
       <c r="N10" t="n">
-        <v>365.0337021927645</v>
+        <v>363.7353849275591</v>
       </c>
       <c r="O10" t="n">
-        <v>19.10585518088014</v>
+        <v>19.07184796834222</v>
       </c>
       <c r="P10" t="n">
-        <v>335.2633766492903</v>
+        <v>335.2247303645955</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -19984,28 +20041,28 @@
         <v>0.0448</v>
       </c>
       <c r="I11" t="n">
-        <v>0.480946534592337</v>
+        <v>0.4954845546961482</v>
       </c>
       <c r="J11" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K11" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L11" t="n">
-        <v>0.03102590158254059</v>
+        <v>0.03299575971850155</v>
       </c>
       <c r="M11" t="n">
-        <v>16.11817351053884</v>
+        <v>16.12658498796626</v>
       </c>
       <c r="N11" t="n">
-        <v>411.6687117391239</v>
+        <v>411.5869253966194</v>
       </c>
       <c r="O11" t="n">
-        <v>20.28962078845053</v>
+        <v>20.28760521591002</v>
       </c>
       <c r="P11" t="n">
-        <v>334.2391886857919</v>
+        <v>334.1012697816311</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -20062,28 +20119,28 @@
         <v>0.0411</v>
       </c>
       <c r="I12" t="n">
-        <v>0.320933549127046</v>
+        <v>0.3265527415437327</v>
       </c>
       <c r="J12" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K12" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01330590886357952</v>
+        <v>0.01387129156772671</v>
       </c>
       <c r="M12" t="n">
-        <v>16.56454891122354</v>
+        <v>16.525382894343</v>
       </c>
       <c r="N12" t="n">
-        <v>416.6720252773711</v>
+        <v>415.1586268896427</v>
       </c>
       <c r="O12" t="n">
-        <v>20.4125457813907</v>
+        <v>20.37544175937402</v>
       </c>
       <c r="P12" t="n">
-        <v>341.6409515089834</v>
+        <v>341.5853731007037</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -20137,7 +20194,7 @@
         <v>0.3891307187277083</v>
       </c>
       <c r="J13" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K13" t="n">
         <v>219</v>
@@ -20215,7 +20272,7 @@
         <v>0.8974148753034612</v>
       </c>
       <c r="J14" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K14" t="n">
         <v>191</v>
@@ -20271,7 +20328,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O340"/>
+  <dimension ref="A1:O341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41895,6 +41952,75 @@
         </is>
       </c>
     </row>
+    <row r="341">
+      <c r="A341" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>-38.42611189415078,174.64125198826045</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>-38.42540948435423,174.6411673836456</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>-38.42472965948504,174.6409107583333</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>-38.42401210676799,174.64094135474758</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>-38.423308765717465,174.64086368698244</t>
+        </is>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>-38.42262921546291,174.64060481917554</t>
+        </is>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>-38.42193808026258,174.64043492806763</t>
+        </is>
+      </c>
+      <c r="I341" t="inlineStr">
+        <is>
+          <t>-38.42124310851545,174.6402948744124</t>
+        </is>
+      </c>
+      <c r="J341" t="inlineStr">
+        <is>
+          <t>-38.42054551946191,174.64016922981028</t>
+        </is>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>-38.41987092373776,174.639890288887</t>
+        </is>
+      </c>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>-38.419162430799744,174.63983591283667</t>
+        </is>
+      </c>
+      <c r="M341" t="inlineStr"/>
+      <c r="N341" t="inlineStr"/>
+      <c r="O341" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0258/nzd0258.xlsx
+++ b/data/nzd0258/nzd0258.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O341"/>
+  <dimension ref="A1:O343"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15567,6 +15567,100 @@
         </is>
       </c>
     </row>
+    <row r="342">
+      <c r="A342" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-09 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>350.0522222222222</v>
+      </c>
+      <c r="C342" t="n">
+        <v>347.7</v>
+      </c>
+      <c r="D342" t="n">
+        <v>353.32</v>
+      </c>
+      <c r="E342" t="n">
+        <v>326.5</v>
+      </c>
+      <c r="F342" t="n">
+        <v>342.4366666666667</v>
+      </c>
+      <c r="G342" t="n">
+        <v>339.5833333333333</v>
+      </c>
+      <c r="H342" t="inlineStr"/>
+      <c r="I342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>371.74</v>
+      </c>
+      <c r="K342" t="n">
+        <v>357.09</v>
+      </c>
+      <c r="L342" t="n">
+        <v>331.58</v>
+      </c>
+      <c r="M342" t="n">
+        <v>309.5066666666667</v>
+      </c>
+      <c r="N342" t="n">
+        <v>325.39</v>
+      </c>
+      <c r="O342" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>369.8388888888889</v>
+      </c>
+      <c r="C343" t="n">
+        <v>367.6246153846154</v>
+      </c>
+      <c r="D343" t="n">
+        <v>355.98</v>
+      </c>
+      <c r="E343" t="n">
+        <v>340.8</v>
+      </c>
+      <c r="F343" t="n">
+        <v>332.1266666666667</v>
+      </c>
+      <c r="G343" t="n">
+        <v>346.8433333333334</v>
+      </c>
+      <c r="H343" t="n">
+        <v>360.2388888888889</v>
+      </c>
+      <c r="I343" t="n">
+        <v>356.9488888888889</v>
+      </c>
+      <c r="J343" t="n">
+        <v>359.7142857142857</v>
+      </c>
+      <c r="K343" t="n">
+        <v>347.9</v>
+      </c>
+      <c r="L343" t="n">
+        <v>352.9542857142857</v>
+      </c>
+      <c r="M343" t="inlineStr"/>
+      <c r="N343" t="inlineStr"/>
+      <c r="O343" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -15578,7 +15672,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B358"/>
+  <dimension ref="A1:B360"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19166,6 +19260,26 @@
       </c>
       <c r="B358" t="n">
         <v>0.17</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>2025-07-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>1.39</v>
       </c>
     </row>
   </sheetData>
@@ -19339,28 +19453,28 @@
         <v>0.0507</v>
       </c>
       <c r="I2" t="n">
-        <v>1.131068540421981</v>
+        <v>1.15021259586785</v>
       </c>
       <c r="J2" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K2" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1460884993332339</v>
+        <v>0.1517990709925661</v>
       </c>
       <c r="M2" t="n">
-        <v>15.96514293309323</v>
+        <v>15.917926682672</v>
       </c>
       <c r="N2" t="n">
-        <v>406.7332473593136</v>
+        <v>405.3609190176663</v>
       </c>
       <c r="O2" t="n">
-        <v>20.16762869946077</v>
+        <v>20.13357690569826</v>
       </c>
       <c r="P2" t="n">
-        <v>318.8564143641785</v>
+        <v>318.6662510204422</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -19417,28 +19531,28 @@
         <v>0.07240000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8997345295851759</v>
+        <v>0.9250548919320181</v>
       </c>
       <c r="J3" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K3" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1188959923433202</v>
+        <v>0.1254938456176243</v>
       </c>
       <c r="M3" t="n">
-        <v>14.57461412165123</v>
+        <v>14.60538142517292</v>
       </c>
       <c r="N3" t="n">
-        <v>334.2223631043776</v>
+        <v>334.7575752690271</v>
       </c>
       <c r="O3" t="n">
-        <v>18.28174945415174</v>
+        <v>18.29638148020059</v>
       </c>
       <c r="P3" t="n">
-        <v>316.9846214641008</v>
+        <v>316.7387446735979</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -19495,28 +19609,28 @@
         <v>0.0552</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7403607144114537</v>
+        <v>0.7656614277945781</v>
       </c>
       <c r="J4" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K4" t="n">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04983246000460995</v>
+        <v>0.05360761517999213</v>
       </c>
       <c r="M4" t="n">
-        <v>19.17490415859803</v>
+        <v>19.17244343632278</v>
       </c>
       <c r="N4" t="n">
-        <v>578.9567583305811</v>
+        <v>577.1983210664799</v>
       </c>
       <c r="O4" t="n">
-        <v>24.06152028302828</v>
+        <v>24.02495205128368</v>
       </c>
       <c r="P4" t="n">
-        <v>317.1153121105326</v>
+        <v>316.8658464316392</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -19573,28 +19687,28 @@
         <v>0.0562</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2887255591655448</v>
+        <v>0.2820214273878091</v>
       </c>
       <c r="J5" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K5" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01126618465728246</v>
+        <v>0.01090014671843142</v>
       </c>
       <c r="M5" t="n">
-        <v>16.50838737470135</v>
+        <v>16.43087988253236</v>
       </c>
       <c r="N5" t="n">
-        <v>408.1273078139683</v>
+        <v>405.5167448691022</v>
       </c>
       <c r="O5" t="n">
-        <v>20.20216096891539</v>
+        <v>20.13744633435685</v>
       </c>
       <c r="P5" t="n">
-        <v>330.974753410871</v>
+        <v>331.0403045543241</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -19651,28 +19765,28 @@
         <v>0.0675</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6144539944621251</v>
+        <v>0.6041109545589335</v>
       </c>
       <c r="J6" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K6" t="n">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L6" t="n">
-        <v>0.06277415431893907</v>
+        <v>0.06148849745179663</v>
       </c>
       <c r="M6" t="n">
-        <v>14.0560466226073</v>
+        <v>14.00915695447001</v>
       </c>
       <c r="N6" t="n">
-        <v>316.0098231697413</v>
+        <v>314.3365805592439</v>
       </c>
       <c r="O6" t="n">
-        <v>17.77666513071958</v>
+        <v>17.72953977291131</v>
       </c>
       <c r="P6" t="n">
-        <v>329.3537896353914</v>
+        <v>329.4550261566483</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -19729,28 +19843,28 @@
         <v>0.0895</v>
       </c>
       <c r="I7" t="n">
-        <v>0.600761073447274</v>
+        <v>0.5950791692182189</v>
       </c>
       <c r="J7" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K7" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L7" t="n">
-        <v>0.07778278208745415</v>
+        <v>0.07735702937430677</v>
       </c>
       <c r="M7" t="n">
-        <v>11.95790677013754</v>
+        <v>11.89804951522518</v>
       </c>
       <c r="N7" t="n">
-        <v>234.8271385454997</v>
+        <v>233.3870585750907</v>
       </c>
       <c r="O7" t="n">
-        <v>15.3240705605756</v>
+        <v>15.27701078663921</v>
       </c>
       <c r="P7" t="n">
-        <v>332.1419758978194</v>
+        <v>332.1979074574826</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -19807,28 +19921,28 @@
         <v>0.0555</v>
       </c>
       <c r="I8" t="n">
-        <v>0.545808480863734</v>
+        <v>0.5546355103501059</v>
       </c>
       <c r="J8" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K8" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0449718450590203</v>
+        <v>0.04662521898236571</v>
       </c>
       <c r="M8" t="n">
-        <v>14.87304658335075</v>
+        <v>14.86627532021335</v>
       </c>
       <c r="N8" t="n">
-        <v>353.046629341795</v>
+        <v>352.353764817837</v>
       </c>
       <c r="O8" t="n">
-        <v>18.78953510180055</v>
+        <v>18.77108853577322</v>
       </c>
       <c r="P8" t="n">
-        <v>333.4846075351481</v>
+        <v>333.3993129988954</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -19885,28 +19999,28 @@
         <v>0.0553</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6165597420332993</v>
+        <v>0.6226631516803576</v>
       </c>
       <c r="J9" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K9" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L9" t="n">
-        <v>0.06332798177851373</v>
+        <v>0.06491244072629221</v>
       </c>
       <c r="M9" t="n">
-        <v>14.07232441792489</v>
+        <v>14.04893281894367</v>
       </c>
       <c r="N9" t="n">
-        <v>305.7783350659941</v>
+        <v>304.8916861975818</v>
       </c>
       <c r="O9" t="n">
-        <v>17.48651866627529</v>
+        <v>17.46114790606797</v>
       </c>
       <c r="P9" t="n">
-        <v>332.7125740557693</v>
+        <v>332.6520456918229</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -19963,28 +20077,28 @@
         <v>0.0451</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5908030422785395</v>
+        <v>0.6123817152156596</v>
       </c>
       <c r="J10" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K10" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L10" t="n">
-        <v>0.05047855982725924</v>
+        <v>0.05448046216404634</v>
       </c>
       <c r="M10" t="n">
-        <v>15.17721540317588</v>
+        <v>15.16591547830696</v>
       </c>
       <c r="N10" t="n">
-        <v>363.7353849275591</v>
+        <v>363.0013034696761</v>
       </c>
       <c r="O10" t="n">
-        <v>19.07184796834222</v>
+        <v>19.0525930904346</v>
       </c>
       <c r="P10" t="n">
-        <v>335.2247303645955</v>
+        <v>335.0110391335338</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -20041,28 +20155,28 @@
         <v>0.0448</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4954845546961482</v>
+        <v>0.5037201071670647</v>
       </c>
       <c r="J11" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K11" t="n">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L11" t="n">
-        <v>0.03299575971850155</v>
+        <v>0.03454291099921969</v>
       </c>
       <c r="M11" t="n">
-        <v>16.12658498796626</v>
+        <v>16.04036225384635</v>
       </c>
       <c r="N11" t="n">
-        <v>411.5869253966194</v>
+        <v>408.7766581105903</v>
       </c>
       <c r="O11" t="n">
-        <v>20.28760521591002</v>
+        <v>20.21822588929578</v>
       </c>
       <c r="P11" t="n">
-        <v>334.1012697816311</v>
+        <v>334.0228499304373</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -20119,28 +20233,28 @@
         <v>0.0411</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3265527415437327</v>
+        <v>0.3148914201624657</v>
       </c>
       <c r="J12" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K12" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01387129156772671</v>
+        <v>0.01307040822393613</v>
       </c>
       <c r="M12" t="n">
-        <v>16.525382894343</v>
+        <v>16.47835380769207</v>
       </c>
       <c r="N12" t="n">
-        <v>415.1586268896427</v>
+        <v>413.1525538416967</v>
       </c>
       <c r="O12" t="n">
-        <v>20.37544175937402</v>
+        <v>20.32615442826549</v>
       </c>
       <c r="P12" t="n">
-        <v>341.5853731007037</v>
+        <v>341.7010552249143</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -20191,28 +20305,28 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>0.3891307187277083</v>
+        <v>0.3545349025955868</v>
       </c>
       <c r="J13" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K13" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01817466470724993</v>
+        <v>0.01500096324241984</v>
       </c>
       <c r="M13" t="n">
-        <v>16.56593673344265</v>
+        <v>16.69510071643571</v>
       </c>
       <c r="N13" t="n">
-        <v>462.3843578006507</v>
+        <v>468.328664842834</v>
       </c>
       <c r="O13" t="n">
-        <v>21.5031243729987</v>
+        <v>21.6409025884512</v>
       </c>
       <c r="P13" t="n">
-        <v>341.915262140707</v>
+        <v>342.2534768099044</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -20269,28 +20383,28 @@
         <v>0.0477</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8974148753034612</v>
+        <v>0.8696190190523598</v>
       </c>
       <c r="J14" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K14" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L14" t="n">
-        <v>0.07262519669204759</v>
+        <v>0.06856608467611724</v>
       </c>
       <c r="M14" t="n">
-        <v>17.82799609207436</v>
+        <v>17.88425803755956</v>
       </c>
       <c r="N14" t="n">
-        <v>604.8756699712334</v>
+        <v>606.6574126140162</v>
       </c>
       <c r="O14" t="n">
-        <v>24.59422025540215</v>
+        <v>24.63041641170559</v>
       </c>
       <c r="P14" t="n">
-        <v>333.4669264031554</v>
+        <v>333.732739926688</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -20328,7 +20442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O341"/>
+  <dimension ref="A1:O343"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42021,6 +42135,144 @@
         </is>
       </c>
     </row>
+    <row r="342">
+      <c r="A342" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-09 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>-38.42609707883917,174.6413647972913</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>-38.42539815598159,174.64125364145522</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>-38.42471105453409,174.64105242286755</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>-38.423975816433334,174.6412176768292</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>-38.4233040081649,174.6408999120328</t>
+        </is>
+      </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>-38.422604315213874,174.64079441528256</t>
+        </is>
+      </c>
+      <c r="H342" t="inlineStr"/>
+      <c r="I342" t="inlineStr"/>
+      <c r="J342" t="inlineStr">
+        <is>
+          <t>-38.4205727004366,174.6399891232222</t>
+        </is>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>-38.419855154545154,174.63999477833264</t>
+        </is>
+      </c>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>-38.41911916779712,174.64012257704357</t>
+        </is>
+      </c>
+      <c r="M342" t="inlineStr">
+        <is>
+          <t>-38.41838900795369,174.64021171692963</t>
+        </is>
+      </c>
+      <c r="N342" t="inlineStr">
+        <is>
+          <t>-38.417723271436465,174.63987394666958</t>
+        </is>
+      </c>
+      <c r="O342" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>-38.426126435702216,174.64114126289073</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>-38.42542771735539,174.64102855074466</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>-38.424715001053016,174.6410223728214</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>-38.423997032856214,174.64105613124957</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>-38.42328871171746,174.6410163819363</t>
+        </is>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>-38.42261508640163,174.6407124013334</t>
+        </is>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>-38.42193963762379,174.6404234021287</t>
+        </is>
+      </c>
+      <c r="I343" t="inlineStr">
+        <is>
+          <t>-38.42124025411987,174.64031457274388</t>
+        </is>
+      </c>
+      <c r="J343" t="inlineStr">
+        <is>
+          <t>-38.4205522874508,174.64012438394218</t>
+        </is>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>-38.41983955500553,174.64009814297856</t>
+        </is>
+      </c>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>-38.41915544950125,174.63988217182967</t>
+        </is>
+      </c>
+      <c r="M343" t="inlineStr"/>
+      <c r="N343" t="inlineStr"/>
+      <c r="O343" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0258/nzd0258.xlsx
+++ b/data/nzd0258/nzd0258.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O343"/>
+  <dimension ref="A1:O346"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15661,6 +15661,147 @@
         </is>
       </c>
     </row>
+    <row r="344">
+      <c r="A344" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:28+00:00</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>379.9977777777778</v>
+      </c>
+      <c r="C344" t="n">
+        <v>366.04</v>
+      </c>
+      <c r="D344" t="n">
+        <v>331.41</v>
+      </c>
+      <c r="E344" t="inlineStr"/>
+      <c r="F344" t="n">
+        <v>354.4833333333333</v>
+      </c>
+      <c r="G344" t="n">
+        <v>347.2166666666666</v>
+      </c>
+      <c r="H344" t="n">
+        <v>349.6777777777777</v>
+      </c>
+      <c r="I344" t="n">
+        <v>353.1677777777778</v>
+      </c>
+      <c r="J344" t="n">
+        <v>348.5571428571428</v>
+      </c>
+      <c r="K344" t="n">
+        <v>336.78</v>
+      </c>
+      <c r="L344" t="n">
+        <v>356.5971428571428</v>
+      </c>
+      <c r="M344" t="n">
+        <v>360.7933333333334</v>
+      </c>
+      <c r="N344" t="inlineStr"/>
+      <c r="O344" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:06:29+00:00</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>358.5666666666667</v>
+      </c>
+      <c r="C345" t="n">
+        <v>356.5892307692308</v>
+      </c>
+      <c r="D345" t="n">
+        <v>358.52</v>
+      </c>
+      <c r="E345" t="n">
+        <v>355</v>
+      </c>
+      <c r="F345" t="n">
+        <v>360.98</v>
+      </c>
+      <c r="G345" t="n">
+        <v>327.7</v>
+      </c>
+      <c r="H345" t="n">
+        <v>340.5266666666667</v>
+      </c>
+      <c r="I345" t="n">
+        <v>343.5066666666667</v>
+      </c>
+      <c r="J345" t="n">
+        <v>330.1471428571429</v>
+      </c>
+      <c r="K345" t="n">
+        <v>317.7</v>
+      </c>
+      <c r="L345" t="n">
+        <v>318.3271428571429</v>
+      </c>
+      <c r="M345" t="n">
+        <v>324.1</v>
+      </c>
+      <c r="N345" t="n">
+        <v>306.51</v>
+      </c>
+      <c r="O345" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:06:33+00:00</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>379.5933333333333</v>
+      </c>
+      <c r="C346" t="n">
+        <v>373.08</v>
+      </c>
+      <c r="D346" t="n">
+        <v>385.69</v>
+      </c>
+      <c r="E346" t="n">
+        <v>375.22</v>
+      </c>
+      <c r="F346" t="n">
+        <v>363.18</v>
+      </c>
+      <c r="G346" t="n">
+        <v>343.25</v>
+      </c>
+      <c r="H346" t="n">
+        <v>353.2733333333333</v>
+      </c>
+      <c r="I346" t="n">
+        <v>348.0833333333333</v>
+      </c>
+      <c r="J346" t="n">
+        <v>349.3257142857143</v>
+      </c>
+      <c r="K346" t="inlineStr"/>
+      <c r="L346" t="inlineStr"/>
+      <c r="M346" t="inlineStr"/>
+      <c r="N346" t="inlineStr"/>
+      <c r="O346" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -15672,7 +15813,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B360"/>
+  <dimension ref="A1:B363"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19280,6 +19421,36 @@
       </c>
       <c r="B360" t="n">
         <v>1.39</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>0.78</v>
       </c>
     </row>
   </sheetData>
@@ -19453,28 +19624,28 @@
         <v>0.0507</v>
       </c>
       <c r="I2" t="n">
-        <v>1.15021259586785</v>
+        <v>1.206404205632488</v>
       </c>
       <c r="J2" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K2" t="n">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1517990709925661</v>
+        <v>0.1649518620849613</v>
       </c>
       <c r="M2" t="n">
-        <v>15.917926682672</v>
+        <v>15.97533589018243</v>
       </c>
       <c r="N2" t="n">
-        <v>405.3609190176663</v>
+        <v>408.7682972819541</v>
       </c>
       <c r="O2" t="n">
-        <v>20.13357690569826</v>
+        <v>20.21801912359255</v>
       </c>
       <c r="P2" t="n">
-        <v>318.6662510204422</v>
+        <v>318.1060893831889</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -19531,28 +19702,28 @@
         <v>0.07240000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9250548919320181</v>
+        <v>0.9768783081463435</v>
       </c>
       <c r="J3" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K3" t="n">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1254938456176243</v>
+        <v>0.1380522991837307</v>
       </c>
       <c r="M3" t="n">
-        <v>14.60538142517292</v>
+        <v>14.72545052307868</v>
       </c>
       <c r="N3" t="n">
-        <v>334.7575752690271</v>
+        <v>338.199294518137</v>
       </c>
       <c r="O3" t="n">
-        <v>18.29638148020059</v>
+        <v>18.39019560847946</v>
       </c>
       <c r="P3" t="n">
-        <v>316.7387446735979</v>
+        <v>316.2334905363692</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -19609,28 +19780,28 @@
         <v>0.0552</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7656614277945781</v>
+        <v>0.809630740690034</v>
       </c>
       <c r="J4" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K4" t="n">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05360761517999213</v>
+        <v>0.05970944501113984</v>
       </c>
       <c r="M4" t="n">
-        <v>19.17244343632278</v>
+        <v>19.25512425647414</v>
       </c>
       <c r="N4" t="n">
-        <v>577.1983210664799</v>
+        <v>581.3981687098235</v>
       </c>
       <c r="O4" t="n">
-        <v>24.02495205128368</v>
+        <v>24.11219958257279</v>
       </c>
       <c r="P4" t="n">
-        <v>316.8658464316392</v>
+        <v>316.429901674271</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -19687,28 +19858,28 @@
         <v>0.0562</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2820214273878091</v>
+        <v>0.3198990552614653</v>
       </c>
       <c r="J5" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K5" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01090014671843142</v>
+        <v>0.0139736054685996</v>
       </c>
       <c r="M5" t="n">
-        <v>16.43087988253236</v>
+        <v>16.53257318066168</v>
       </c>
       <c r="N5" t="n">
-        <v>405.5167448691022</v>
+        <v>408.610056947398</v>
       </c>
       <c r="O5" t="n">
-        <v>20.13744633435685</v>
+        <v>20.21410539567354</v>
       </c>
       <c r="P5" t="n">
-        <v>331.0403045543241</v>
+        <v>330.6672480944967</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -19765,28 +19936,28 @@
         <v>0.0675</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6041109545589335</v>
+        <v>0.6325450949013289</v>
       </c>
       <c r="J6" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K6" t="n">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="L6" t="n">
-        <v>0.06148849745179663</v>
+        <v>0.06782253586996034</v>
       </c>
       <c r="M6" t="n">
-        <v>14.00915695447001</v>
+        <v>14.01558559351185</v>
       </c>
       <c r="N6" t="n">
-        <v>314.3365805592439</v>
+        <v>313.3196317364116</v>
       </c>
       <c r="O6" t="n">
-        <v>17.72953977291131</v>
+        <v>17.70083703490916</v>
       </c>
       <c r="P6" t="n">
-        <v>329.4550261566483</v>
+        <v>329.1755562002465</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -19843,28 +20014,28 @@
         <v>0.0895</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5950791692182189</v>
+        <v>0.5793503451399975</v>
       </c>
       <c r="J7" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K7" t="n">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="L7" t="n">
-        <v>0.07735702937430677</v>
+        <v>0.07461682227278754</v>
       </c>
       <c r="M7" t="n">
-        <v>11.89804951522518</v>
+        <v>11.84009104727242</v>
       </c>
       <c r="N7" t="n">
-        <v>233.3870585750907</v>
+        <v>232.3458465017696</v>
       </c>
       <c r="O7" t="n">
-        <v>15.27701078663921</v>
+        <v>15.24289495147722</v>
       </c>
       <c r="P7" t="n">
-        <v>332.1979074574826</v>
+        <v>332.3536173997238</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -19921,28 +20092,28 @@
         <v>0.0555</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5546355103501059</v>
+        <v>0.5550461204422018</v>
       </c>
       <c r="J8" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K8" t="n">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04662521898236571</v>
+        <v>0.04763434873454198</v>
       </c>
       <c r="M8" t="n">
-        <v>14.86627532021335</v>
+        <v>14.7594829533728</v>
       </c>
       <c r="N8" t="n">
-        <v>352.353764817837</v>
+        <v>348.8747394657083</v>
       </c>
       <c r="O8" t="n">
-        <v>18.77108853577322</v>
+        <v>18.67818887006201</v>
       </c>
       <c r="P8" t="n">
-        <v>333.3993129988954</v>
+        <v>333.395305726345</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -19999,28 +20170,28 @@
         <v>0.0553</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6226631516803576</v>
+        <v>0.6218774343514358</v>
       </c>
       <c r="J9" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K9" t="n">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="L9" t="n">
-        <v>0.06491244072629221</v>
+        <v>0.06609006595098355</v>
       </c>
       <c r="M9" t="n">
-        <v>14.04893281894367</v>
+        <v>13.93000706764427</v>
       </c>
       <c r="N9" t="n">
-        <v>304.8916861975818</v>
+        <v>301.6550133254947</v>
       </c>
       <c r="O9" t="n">
-        <v>17.46114790606797</v>
+        <v>17.36821848450482</v>
       </c>
       <c r="P9" t="n">
-        <v>332.6520456918229</v>
+        <v>332.6599037354237</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -20077,28 +20248,28 @@
         <v>0.0451</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6123817152156596</v>
+        <v>0.5958733503944598</v>
       </c>
       <c r="J10" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K10" t="n">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="L10" t="n">
-        <v>0.05448046216404634</v>
+        <v>0.05256320562424321</v>
       </c>
       <c r="M10" t="n">
-        <v>15.16591547830696</v>
+        <v>15.09145760368097</v>
       </c>
       <c r="N10" t="n">
-        <v>363.0013034696761</v>
+        <v>360.4707751107293</v>
       </c>
       <c r="O10" t="n">
-        <v>19.0525930904346</v>
+        <v>18.98606792126082</v>
       </c>
       <c r="P10" t="n">
-        <v>335.0110391335338</v>
+        <v>335.1753635941895</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -20155,28 +20326,28 @@
         <v>0.0448</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5037201071670647</v>
+        <v>0.4757887134489735</v>
       </c>
       <c r="J11" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K11" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L11" t="n">
-        <v>0.03454291099921969</v>
+        <v>0.03112115120712655</v>
       </c>
       <c r="M11" t="n">
-        <v>16.04036225384635</v>
+        <v>16.08096431776188</v>
       </c>
       <c r="N11" t="n">
-        <v>408.7766581105903</v>
+        <v>409.2549849305609</v>
       </c>
       <c r="O11" t="n">
-        <v>20.21822588929578</v>
+        <v>20.23005153059578</v>
       </c>
       <c r="P11" t="n">
-        <v>334.0228499304373</v>
+        <v>334.2902404245733</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -20233,28 +20404,28 @@
         <v>0.0411</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3148914201624657</v>
+        <v>0.2963781469619468</v>
       </c>
       <c r="J12" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K12" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01307040822393613</v>
+        <v>0.01165806488611321</v>
       </c>
       <c r="M12" t="n">
-        <v>16.47835380769207</v>
+        <v>16.502414008114</v>
       </c>
       <c r="N12" t="n">
-        <v>413.1525538416967</v>
+        <v>413.9781706638394</v>
       </c>
       <c r="O12" t="n">
-        <v>20.32615442826549</v>
+        <v>20.34645351563361</v>
       </c>
       <c r="P12" t="n">
-        <v>341.7010552249143</v>
+        <v>341.8859186041876</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -20305,28 +20476,28 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>0.3545349025955868</v>
+        <v>0.3402000628565784</v>
       </c>
       <c r="J13" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K13" t="n">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01500096324241984</v>
+        <v>0.01394791477816426</v>
       </c>
       <c r="M13" t="n">
-        <v>16.69510071643571</v>
+        <v>16.71489844475018</v>
       </c>
       <c r="N13" t="n">
-        <v>468.328664842834</v>
+        <v>467.8380116265729</v>
       </c>
       <c r="O13" t="n">
-        <v>21.6409025884512</v>
+        <v>21.62956337114952</v>
       </c>
       <c r="P13" t="n">
-        <v>342.2534768099044</v>
+        <v>342.3945574997146</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -20383,28 +20554,28 @@
         <v>0.0477</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8696190190523598</v>
+        <v>0.8253693582865662</v>
       </c>
       <c r="J14" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K14" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L14" t="n">
-        <v>0.06856608467611724</v>
+        <v>0.06153172852470012</v>
       </c>
       <c r="M14" t="n">
-        <v>17.88425803755956</v>
+        <v>18.02710026166948</v>
       </c>
       <c r="N14" t="n">
-        <v>606.6574126140162</v>
+        <v>616.0415565248959</v>
       </c>
       <c r="O14" t="n">
-        <v>24.63041641170559</v>
+        <v>24.82018445791441</v>
       </c>
       <c r="P14" t="n">
-        <v>333.732739926688</v>
+        <v>334.1586407955029</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -20442,7 +20613,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O343"/>
+  <dimension ref="A1:O346"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42273,6 +42444,213 @@
         </is>
       </c>
     </row>
+    <row r="344">
+      <c r="A344" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:28+00:00</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>-38.42614150796605,174.64102649557373</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>-38.425425366339105,174.64104645233732</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>-38.4246785473902,174.64129994021803</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr"/>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>-38.423321881075154,174.64076382330344</t>
+        </is>
+      </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>-38.42261564029036,174.6407081839028</t>
+        </is>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>-38.42192353015021,174.6405426121675</t>
+        </is>
+      </c>
+      <c r="I344" t="inlineStr">
+        <is>
+          <t>-38.42123408288364,174.64035716068096</t>
+        </is>
+      </c>
+      <c r="J344" t="inlineStr">
+        <is>
+          <t>-38.42053334867882,174.64024987522376</t>
+        </is>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>-38.41982067927216,174.64022321526116</t>
+        </is>
+      </c>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>-38.419161633007256,174.63984119912013</t>
+        </is>
+      </c>
+      <c r="M344" t="inlineStr">
+        <is>
+          <t>-38.41847606410967,174.63963488063914</t>
+        </is>
+      </c>
+      <c r="N344" t="inlineStr"/>
+      <c r="O344" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:06:29+00:00</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>-38.42610971150787,174.64126860773132</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>-38.425411344639116,174.64115321880004</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>-38.42471876952638,174.6409936784131</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>-38.424018100694056,174.640895715258</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>-38.42333151972129,174.64069043175874</t>
+        </is>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>-38.4225866845657,174.6409286575253</t>
+        </is>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>-38.42190957306696,174.64064590658515</t>
+        </is>
+      </c>
+      <c r="I345" t="inlineStr">
+        <is>
+          <t>-38.42121831469796,174.64046597701736</t>
+        </is>
+      </c>
+      <c r="J345" t="inlineStr">
+        <is>
+          <t>-38.42050209820171,174.64045694371885</t>
+        </is>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>-38.41978829146491,174.64043781754035</t>
+        </is>
+      </c>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>-38.41909667153739,174.64027163714468</t>
+        </is>
+      </c>
+      <c r="M345" t="inlineStr">
+        <is>
+          <t>-38.4184137795807,174.6400475815497</t>
+        </is>
+      </c>
+      <c r="N345" t="inlineStr">
+        <is>
+          <t>-38.41769122356034,174.6400862934393</t>
+        </is>
+      </c>
+      <c r="O345" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:06:33+00:00</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>-38.426140907913044,174.64103106467712</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>-38.425435811221774,174.6409669205919</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>-38.42475907988633,174.6406867384187</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>-38.42404809973256,174.64066729174934</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>-38.42333478369579,174.64066557879372</t>
+        </is>
+      </c>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>-38.422609755214815,174.64075299409942</t>
+        </is>
+      </c>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>-38.42192901399164,174.6405020268309</t>
+        </is>
+      </c>
+      <c r="I346" t="inlineStr">
+        <is>
+          <t>-38.42122578442369,174.64041442849125</t>
+        </is>
+      </c>
+      <c r="J346" t="inlineStr">
+        <is>
+          <t>-38.420534653300166,174.6402412306281</t>
+        </is>
+      </c>
+      <c r="K346" t="inlineStr"/>
+      <c r="L346" t="inlineStr"/>
+      <c r="M346" t="inlineStr"/>
+      <c r="N346" t="inlineStr"/>
+      <c r="O346" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0258/nzd0258.xlsx
+++ b/data/nzd0258/nzd0258.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O346"/>
+  <dimension ref="A1:O347"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15802,6 +15802,55 @@
         </is>
       </c>
     </row>
+    <row r="347">
+      <c r="A347" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:06:39+00:00</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>352.4588888888889</v>
+      </c>
+      <c r="C347" t="n">
+        <v>347.2023076923077</v>
+      </c>
+      <c r="D347" t="n">
+        <v>350.05</v>
+      </c>
+      <c r="E347" t="inlineStr"/>
+      <c r="F347" t="n">
+        <v>337.1766666666667</v>
+      </c>
+      <c r="G347" t="n">
+        <v>335.3833333333333</v>
+      </c>
+      <c r="H347" t="n">
+        <v>333.6988888888889</v>
+      </c>
+      <c r="I347" t="n">
+        <v>331.3288888888889</v>
+      </c>
+      <c r="J347" t="n">
+        <v>329.5042857142857</v>
+      </c>
+      <c r="K347" t="n">
+        <v>325.05</v>
+      </c>
+      <c r="L347" t="n">
+        <v>331.1842857142857</v>
+      </c>
+      <c r="M347" t="n">
+        <v>327.9066666666666</v>
+      </c>
+      <c r="N347" t="n">
+        <v>332.1</v>
+      </c>
+      <c r="O347" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -15813,7 +15862,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B363"/>
+  <dimension ref="A1:B364"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19451,6 +19500,16 @@
       </c>
       <c r="B363" t="n">
         <v>0.78</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>0.76</v>
       </c>
     </row>
   </sheetData>
@@ -20613,7 +20672,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O346"/>
+  <dimension ref="A1:O347"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42651,6 +42710,79 @@
         </is>
       </c>
     </row>
+    <row r="347">
+      <c r="A347" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:06:39+00:00</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>-38.42610064955836,174.64133760864993</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>-38.425397417569464,174.6412592639409</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>-38.42470620297591,174.6410893640848</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr"/>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>-38.4232962041721,174.64095933315414</t>
+        </is>
+      </c>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>-38.42259808392226,174.6408418613568</t>
+        </is>
+      </c>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>-38.42189915942434,174.64072297603218</t>
+        </is>
+      </c>
+      <c r="I347" t="inlineStr">
+        <is>
+          <t>-38.42119843884346,174.64060313934246</t>
+        </is>
+      </c>
+      <c r="J347" t="inlineStr">
+        <is>
+          <t>-38.420501006962546,174.64046417432166</t>
+        </is>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>-38.419800767946164,174.6403551484477</t>
+        </is>
+      </c>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>-38.419118496088736,174.64012702779934</t>
+        </is>
+      </c>
+      <c r="M347" t="inlineStr">
+        <is>
+          <t>-38.41842024121484,174.64000476686482</t>
+        </is>
+      </c>
+      <c r="N347" t="inlineStr">
+        <is>
+          <t>-38.41773466124135,174.63979847803935</t>
+        </is>
+      </c>
+      <c r="O347" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0258/nzd0258.xlsx
+++ b/data/nzd0258/nzd0258.xlsx
@@ -19683,28 +19683,28 @@
         <v>0.0507</v>
       </c>
       <c r="I2" t="n">
-        <v>1.206404205632488</v>
+        <v>1.208916690147816</v>
       </c>
       <c r="J2" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K2" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1649518620849613</v>
+        <v>0.1666071087333469</v>
       </c>
       <c r="M2" t="n">
-        <v>15.97533589018243</v>
+        <v>15.92124109277113</v>
       </c>
       <c r="N2" t="n">
-        <v>408.7682972819541</v>
+        <v>407.1372495246536</v>
       </c>
       <c r="O2" t="n">
-        <v>20.21801912359255</v>
+        <v>20.1776423182852</v>
       </c>
       <c r="P2" t="n">
-        <v>318.1060893831889</v>
+        <v>318.0809283353869</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -19761,28 +19761,28 @@
         <v>0.07240000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9768783081463435</v>
+        <v>0.9809302333187225</v>
       </c>
       <c r="J3" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K3" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1380522991837307</v>
+        <v>0.1398809714478633</v>
       </c>
       <c r="M3" t="n">
-        <v>14.72545052307868</v>
+        <v>14.69215004774682</v>
       </c>
       <c r="N3" t="n">
-        <v>338.199294518137</v>
+        <v>337.0541467072129</v>
       </c>
       <c r="O3" t="n">
-        <v>18.39019560847946</v>
+        <v>18.35903447099582</v>
       </c>
       <c r="P3" t="n">
-        <v>316.2334905363692</v>
+        <v>316.1938087775374</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -19839,28 +19839,28 @@
         <v>0.0552</v>
       </c>
       <c r="I4" t="n">
-        <v>0.809630740690034</v>
+        <v>0.8181013197665672</v>
       </c>
       <c r="J4" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K4" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05970944501113984</v>
+        <v>0.06122463054079352</v>
       </c>
       <c r="M4" t="n">
-        <v>19.25512425647414</v>
+        <v>19.23469190052337</v>
       </c>
       <c r="N4" t="n">
-        <v>581.3981687098235</v>
+        <v>579.8720350124075</v>
       </c>
       <c r="O4" t="n">
-        <v>24.11219958257279</v>
+        <v>24.08053228258062</v>
       </c>
       <c r="P4" t="n">
-        <v>316.429901674271</v>
+        <v>316.3456047657011</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -19920,7 +19920,7 @@
         <v>0.3198990552614653</v>
       </c>
       <c r="J5" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K5" t="n">
         <v>259</v>
@@ -19995,28 +19995,28 @@
         <v>0.0675</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6325450949013289</v>
+        <v>0.6271827719757651</v>
       </c>
       <c r="J6" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K6" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L6" t="n">
-        <v>0.06782253586996034</v>
+        <v>0.06712616983972863</v>
       </c>
       <c r="M6" t="n">
-        <v>14.01558559351185</v>
+        <v>13.99412227410022</v>
       </c>
       <c r="N6" t="n">
-        <v>313.3196317364116</v>
+        <v>312.4397054476862</v>
       </c>
       <c r="O6" t="n">
-        <v>17.70083703490916</v>
+        <v>17.6759640599229</v>
       </c>
       <c r="P6" t="n">
-        <v>329.1755562002465</v>
+        <v>329.2284993895179</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -20073,28 +20073,28 @@
         <v>0.0895</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5793503451399975</v>
+        <v>0.5716506551195656</v>
       </c>
       <c r="J7" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K7" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L7" t="n">
-        <v>0.07461682227278754</v>
+        <v>0.07310775684987714</v>
       </c>
       <c r="M7" t="n">
-        <v>11.84009104727242</v>
+        <v>11.83193139974507</v>
       </c>
       <c r="N7" t="n">
-        <v>232.3458465017696</v>
+        <v>232.0230300406641</v>
       </c>
       <c r="O7" t="n">
-        <v>15.24289495147722</v>
+        <v>15.23230219108931</v>
       </c>
       <c r="P7" t="n">
-        <v>332.3536173997238</v>
+        <v>332.4301747452462</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -20151,28 +20151,28 @@
         <v>0.0555</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5550461204422018</v>
+        <v>0.5456748641199043</v>
       </c>
       <c r="J8" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K8" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04763434873454198</v>
+        <v>0.04634305111667592</v>
       </c>
       <c r="M8" t="n">
-        <v>14.7594829533728</v>
+        <v>14.75585131361195</v>
       </c>
       <c r="N8" t="n">
-        <v>348.8747394657083</v>
+        <v>348.3193712048157</v>
       </c>
       <c r="O8" t="n">
-        <v>18.67818887006201</v>
+        <v>18.66331618991694</v>
       </c>
       <c r="P8" t="n">
-        <v>333.395305726345</v>
+        <v>333.4865692053826</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -20229,28 +20229,28 @@
         <v>0.0553</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6218774343514358</v>
+        <v>0.6097450538423117</v>
       </c>
       <c r="J9" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K9" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L9" t="n">
-        <v>0.06609006595098355</v>
+        <v>0.06391920637053605</v>
       </c>
       <c r="M9" t="n">
-        <v>13.93000706764427</v>
+        <v>13.94584802075578</v>
       </c>
       <c r="N9" t="n">
-        <v>301.6550133254947</v>
+        <v>301.6384880988783</v>
       </c>
       <c r="O9" t="n">
-        <v>17.36821848450482</v>
+        <v>17.36774274622002</v>
       </c>
       <c r="P9" t="n">
-        <v>332.6599037354237</v>
+        <v>332.7811594748736</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -20307,28 +20307,28 @@
         <v>0.0451</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5958733503944598</v>
+        <v>0.5815281837724668</v>
       </c>
       <c r="J10" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K10" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L10" t="n">
-        <v>0.05256320562424321</v>
+        <v>0.05030351025554669</v>
       </c>
       <c r="M10" t="n">
-        <v>15.09145760368097</v>
+        <v>15.11921493229971</v>
       </c>
       <c r="N10" t="n">
-        <v>360.4707751107293</v>
+        <v>360.7588618448497</v>
       </c>
       <c r="O10" t="n">
-        <v>18.98606792126082</v>
+        <v>18.99365319902545</v>
       </c>
       <c r="P10" t="n">
-        <v>335.1753635941895</v>
+        <v>335.3188436654654</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -20385,28 +20385,28 @@
         <v>0.0448</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4757887134489735</v>
+        <v>0.4605959903611198</v>
       </c>
       <c r="J11" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K11" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L11" t="n">
-        <v>0.03112115120712655</v>
+        <v>0.02931481067014774</v>
       </c>
       <c r="M11" t="n">
-        <v>16.08096431776188</v>
+        <v>16.1089539263244</v>
       </c>
       <c r="N11" t="n">
-        <v>409.2549849305609</v>
+        <v>409.4375118560071</v>
       </c>
       <c r="O11" t="n">
-        <v>20.23005153059578</v>
+        <v>20.23456230947453</v>
       </c>
       <c r="P11" t="n">
-        <v>334.2902404245733</v>
+        <v>334.4364105010126</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -20463,28 +20463,28 @@
         <v>0.0411</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2963781469619468</v>
+        <v>0.2826510864188549</v>
       </c>
       <c r="J12" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K12" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01165806488611321</v>
+        <v>0.01066163687089117</v>
       </c>
       <c r="M12" t="n">
-        <v>16.502414008114</v>
+        <v>16.51136859727291</v>
       </c>
       <c r="N12" t="n">
-        <v>413.9781706638394</v>
+        <v>413.6449506758626</v>
       </c>
       <c r="O12" t="n">
-        <v>20.34645351563361</v>
+        <v>20.33826321680056</v>
       </c>
       <c r="P12" t="n">
-        <v>341.8859186041876</v>
+        <v>342.0235782037891</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -20535,28 +20535,28 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>0.3402000628565784</v>
+        <v>0.3215740090860243</v>
       </c>
       <c r="J13" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K13" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01394791477816426</v>
+        <v>0.01252006976670872</v>
       </c>
       <c r="M13" t="n">
-        <v>16.71489844475018</v>
+        <v>16.74977212319265</v>
       </c>
       <c r="N13" t="n">
-        <v>467.8380116265729</v>
+        <v>468.1319385600369</v>
       </c>
       <c r="O13" t="n">
-        <v>21.62956337114952</v>
+        <v>21.63635686893792</v>
       </c>
       <c r="P13" t="n">
-        <v>342.3945574997146</v>
+        <v>342.5786393617076</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -20613,28 +20613,28 @@
         <v>0.0477</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8253693582865662</v>
+        <v>0.804673030090835</v>
       </c>
       <c r="J14" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K14" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L14" t="n">
-        <v>0.06153172852470012</v>
+        <v>0.05892399425581907</v>
       </c>
       <c r="M14" t="n">
-        <v>18.02710026166948</v>
+        <v>18.04541972280338</v>
       </c>
       <c r="N14" t="n">
-        <v>616.0415565248959</v>
+        <v>615.624605288727</v>
       </c>
       <c r="O14" t="n">
-        <v>24.82018445791441</v>
+        <v>24.81178359749107</v>
       </c>
       <c r="P14" t="n">
-        <v>334.1586407955029</v>
+        <v>334.3588617344039</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">

--- a/data/nzd0258/nzd0258.xlsx
+++ b/data/nzd0258/nzd0258.xlsx
@@ -19674,13 +19674,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.045</v>
+        <v>0.055</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0423</v>
+        <v>0.0528</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0507</v>
+        <v>0.0623</v>
       </c>
       <c r="I2" t="n">
         <v>1.208890936043843</v>
@@ -19755,10 +19755,10 @@
         <v>0.065</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0587</v>
+        <v>0.0585</v>
       </c>
       <c r="H3" t="n">
-        <v>0.07240000000000001</v>
+        <v>0.07290000000000001</v>
       </c>
       <c r="I3" t="n">
         <v>0.9809368760059263</v>
@@ -19830,13 +19830,13 @@
         <v>0.8333323717649279</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05</v>
+        <v>0.065</v>
       </c>
       <c r="G4" t="n">
-        <v>0.046</v>
+        <v>0.0544</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0552</v>
+        <v>0.0756</v>
       </c>
       <c r="I4" t="n">
         <v>0.8181013197665674</v>
@@ -19908,13 +19908,13 @@
         <v>0.7499985576473919</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05</v>
+        <v>0.045</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0415</v>
+        <v>0.0388</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0562</v>
+        <v>0.059</v>
       </c>
       <c r="I5" t="n">
         <v>0.3198990552614657</v>
@@ -19986,13 +19986,13 @@
         <v>0.6666647435293799</v>
       </c>
       <c r="F6" t="n">
-        <v>0.06</v>
+        <v>0.065</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0537</v>
+        <v>0.0485</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0675</v>
+        <v>0.0961</v>
       </c>
       <c r="I6" t="n">
         <v>0.6271468511585234</v>
@@ -20064,13 +20064,13 @@
         <v>0.5833309294106008</v>
       </c>
       <c r="F7" t="n">
-        <v>0.075</v>
+        <v>0.065</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06320000000000001</v>
+        <v>0.0514</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0895</v>
+        <v>0.0871</v>
       </c>
       <c r="I7" t="n">
         <v>0.5716825101421977</v>
@@ -20142,13 +20142,13 @@
         <v>0.499997115292298</v>
       </c>
       <c r="F8" t="n">
-        <v>0.045</v>
+        <v>0.065</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0396</v>
+        <v>0.0582</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0555</v>
+        <v>0.0692</v>
       </c>
       <c r="I8" t="n">
         <v>0.5456524774796111</v>
@@ -20220,13 +20220,13 @@
         <v>0.4166690705886258</v>
       </c>
       <c r="F9" t="n">
-        <v>0.045</v>
+        <v>0.055</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0399</v>
+        <v>0.048</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0553</v>
+        <v>0.0612</v>
       </c>
       <c r="I9" t="n">
         <v>0.6097190267017512</v>
@@ -20298,13 +20298,13 @@
         <v>0.3333352564706807</v>
       </c>
       <c r="F10" t="n">
-        <v>0.035</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0323</v>
+        <v>0.0569</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0451</v>
+        <v>0.1001</v>
       </c>
       <c r="I10" t="n">
         <v>0.5815288352025483</v>
@@ -20376,13 +20376,13 @@
         <v>0.2500014423532855</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04</v>
+        <v>0.065</v>
       </c>
       <c r="G11" t="n">
-        <v>0.035</v>
+        <v>0.0525</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0448</v>
+        <v>0.08840000000000001</v>
       </c>
       <c r="I11" t="n">
         <v>0.4605959903611198</v>
@@ -20454,13 +20454,13 @@
         <v>0.1666676282358903</v>
       </c>
       <c r="F12" t="n">
-        <v>0.035</v>
+        <v>0.075</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0323</v>
+        <v>0.0563</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0411</v>
+        <v>0.104</v>
       </c>
       <c r="I12" t="n">
         <v>0.2826329253518314</v>
@@ -20531,9 +20531,15 @@
       <c r="E13" t="n">
         <v>0.08333381411794516</v>
       </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0499</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.08019999999999999</v>
+      </c>
       <c r="I13" t="n">
         <v>0.3215610936915745</v>
       </c>
@@ -20604,13 +20610,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.04</v>
+        <v>0.035</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0349</v>
+        <v>0.0296</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0477</v>
+        <v>0.0433</v>
       </c>
       <c r="I14" t="n">
         <v>0.804673030090835</v>
